--- a/all_visualizations/kf_excel_penglings.csv.xlsx
+++ b/all_visualizations/kf_excel_penglings.csv.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29426"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29530"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\klaud\WebstormProjects\klaudio-fusha-a2-datavis-5ways\a2-DataVis-5ways\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\klaud\WebstormProjects\klaudio-fusha-a2-datavis-5ways\a2-DataVis-5ways\all_visualizations\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A37CE8A2-EE7B-4664-A9D0-EB48EF3088AD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F4112ED8-012D-410A-AF1A-ACBACD74EC77}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{298BFD60-299E-47A5-8AF2-E192D2EEC218}"/>
   </bookViews>
@@ -606,6 +606,12 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <mruColors>
+      <color rgb="FF21C1A6"/>
+      <color rgb="FFD256C3"/>
+    </mruColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -641,18 +647,10 @@
           <c:idx val="0"/>
           <c:order val="0"/>
           <c:tx>
-            <c:strRef>
-              <c:f>kf_excel_penglings!$G$1</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>body_mass_g</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
+            <c:v>Adelie</c:v>
           </c:tx>
           <c:spPr>
-            <a:ln w="38100" cap="rnd">
+            <a:ln w="25400" cap="rnd">
               <a:noFill/>
               <a:round/>
             </a:ln>
@@ -663,22 +661,22 @@
             <c:size val="5"/>
             <c:spPr>
               <a:solidFill>
-                <a:schemeClr val="accent1"/>
+                <a:schemeClr val="accent2">
+                  <a:alpha val="70000"/>
+                </a:schemeClr>
               </a:solidFill>
               <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent1"/>
-                </a:solidFill>
+                <a:noFill/>
               </a:ln>
               <a:effectLst/>
             </c:spPr>
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>kf_excel_penglings!$F$2:$F$345</c:f>
+              <c:f>kf_excel_penglings!$F$2:$F$153</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="342"/>
+                <c:ptCount val="151"/>
                 <c:pt idx="0">
                   <c:v>181</c:v>
                 </c:pt>
@@ -1131,589 +1129,16 @@
                 </c:pt>
                 <c:pt idx="150">
                   <c:v>201</c:v>
-                </c:pt>
-                <c:pt idx="151">
-                  <c:v>211</c:v>
-                </c:pt>
-                <c:pt idx="152">
-                  <c:v>230</c:v>
-                </c:pt>
-                <c:pt idx="153">
-                  <c:v>210</c:v>
-                </c:pt>
-                <c:pt idx="154">
-                  <c:v>218</c:v>
-                </c:pt>
-                <c:pt idx="155">
-                  <c:v>215</c:v>
-                </c:pt>
-                <c:pt idx="156">
-                  <c:v>210</c:v>
-                </c:pt>
-                <c:pt idx="157">
-                  <c:v>211</c:v>
-                </c:pt>
-                <c:pt idx="158">
-                  <c:v>219</c:v>
-                </c:pt>
-                <c:pt idx="159">
-                  <c:v>209</c:v>
-                </c:pt>
-                <c:pt idx="160">
-                  <c:v>215</c:v>
-                </c:pt>
-                <c:pt idx="161">
-                  <c:v>214</c:v>
-                </c:pt>
-                <c:pt idx="162">
-                  <c:v>216</c:v>
-                </c:pt>
-                <c:pt idx="163">
-                  <c:v>214</c:v>
-                </c:pt>
-                <c:pt idx="164">
-                  <c:v>213</c:v>
-                </c:pt>
-                <c:pt idx="165">
-                  <c:v>210</c:v>
-                </c:pt>
-                <c:pt idx="166">
-                  <c:v>217</c:v>
-                </c:pt>
-                <c:pt idx="167">
-                  <c:v>210</c:v>
-                </c:pt>
-                <c:pt idx="168">
-                  <c:v>221</c:v>
-                </c:pt>
-                <c:pt idx="169">
-                  <c:v>209</c:v>
-                </c:pt>
-                <c:pt idx="170">
-                  <c:v>222</c:v>
-                </c:pt>
-                <c:pt idx="171">
-                  <c:v>218</c:v>
-                </c:pt>
-                <c:pt idx="172">
-                  <c:v>215</c:v>
-                </c:pt>
-                <c:pt idx="173">
-                  <c:v>213</c:v>
-                </c:pt>
-                <c:pt idx="174">
-                  <c:v>215</c:v>
-                </c:pt>
-                <c:pt idx="175">
-                  <c:v>215</c:v>
-                </c:pt>
-                <c:pt idx="176">
-                  <c:v>215</c:v>
-                </c:pt>
-                <c:pt idx="177">
-                  <c:v>216</c:v>
-                </c:pt>
-                <c:pt idx="178">
-                  <c:v>215</c:v>
-                </c:pt>
-                <c:pt idx="179">
-                  <c:v>210</c:v>
-                </c:pt>
-                <c:pt idx="180">
-                  <c:v>220</c:v>
-                </c:pt>
-                <c:pt idx="181">
-                  <c:v>222</c:v>
-                </c:pt>
-                <c:pt idx="182">
-                  <c:v>209</c:v>
-                </c:pt>
-                <c:pt idx="183">
-                  <c:v>207</c:v>
-                </c:pt>
-                <c:pt idx="184">
-                  <c:v>230</c:v>
-                </c:pt>
-                <c:pt idx="185">
-                  <c:v>220</c:v>
-                </c:pt>
-                <c:pt idx="186">
-                  <c:v>220</c:v>
-                </c:pt>
-                <c:pt idx="187">
-                  <c:v>213</c:v>
-                </c:pt>
-                <c:pt idx="188">
-                  <c:v>219</c:v>
-                </c:pt>
-                <c:pt idx="189">
-                  <c:v>208</c:v>
-                </c:pt>
-                <c:pt idx="190">
-                  <c:v>208</c:v>
-                </c:pt>
-                <c:pt idx="191">
-                  <c:v>208</c:v>
-                </c:pt>
-                <c:pt idx="192">
-                  <c:v>225</c:v>
-                </c:pt>
-                <c:pt idx="193">
-                  <c:v>210</c:v>
-                </c:pt>
-                <c:pt idx="194">
-                  <c:v>216</c:v>
-                </c:pt>
-                <c:pt idx="195">
-                  <c:v>222</c:v>
-                </c:pt>
-                <c:pt idx="196">
-                  <c:v>217</c:v>
-                </c:pt>
-                <c:pt idx="197">
-                  <c:v>210</c:v>
-                </c:pt>
-                <c:pt idx="198">
-                  <c:v>225</c:v>
-                </c:pt>
-                <c:pt idx="199">
-                  <c:v>213</c:v>
-                </c:pt>
-                <c:pt idx="200">
-                  <c:v>215</c:v>
-                </c:pt>
-                <c:pt idx="201">
-                  <c:v>210</c:v>
-                </c:pt>
-                <c:pt idx="202">
-                  <c:v>220</c:v>
-                </c:pt>
-                <c:pt idx="203">
-                  <c:v>210</c:v>
-                </c:pt>
-                <c:pt idx="204">
-                  <c:v>225</c:v>
-                </c:pt>
-                <c:pt idx="205">
-                  <c:v>217</c:v>
-                </c:pt>
-                <c:pt idx="206">
-                  <c:v>220</c:v>
-                </c:pt>
-                <c:pt idx="207">
-                  <c:v>208</c:v>
-                </c:pt>
-                <c:pt idx="208">
-                  <c:v>220</c:v>
-                </c:pt>
-                <c:pt idx="209">
-                  <c:v>208</c:v>
-                </c:pt>
-                <c:pt idx="210">
-                  <c:v>224</c:v>
-                </c:pt>
-                <c:pt idx="211">
-                  <c:v>208</c:v>
-                </c:pt>
-                <c:pt idx="212">
-                  <c:v>221</c:v>
-                </c:pt>
-                <c:pt idx="213">
-                  <c:v>214</c:v>
-                </c:pt>
-                <c:pt idx="214">
-                  <c:v>231</c:v>
-                </c:pt>
-                <c:pt idx="215">
-                  <c:v>219</c:v>
-                </c:pt>
-                <c:pt idx="216">
-                  <c:v>230</c:v>
-                </c:pt>
-                <c:pt idx="217">
-                  <c:v>214</c:v>
-                </c:pt>
-                <c:pt idx="218">
-                  <c:v>229</c:v>
-                </c:pt>
-                <c:pt idx="219">
-                  <c:v>220</c:v>
-                </c:pt>
-                <c:pt idx="220">
-                  <c:v>223</c:v>
-                </c:pt>
-                <c:pt idx="221">
-                  <c:v>216</c:v>
-                </c:pt>
-                <c:pt idx="222">
-                  <c:v>221</c:v>
-                </c:pt>
-                <c:pt idx="223">
-                  <c:v>221</c:v>
-                </c:pt>
-                <c:pt idx="224">
-                  <c:v>217</c:v>
-                </c:pt>
-                <c:pt idx="225">
-                  <c:v>216</c:v>
-                </c:pt>
-                <c:pt idx="226">
-                  <c:v>230</c:v>
-                </c:pt>
-                <c:pt idx="227">
-                  <c:v>209</c:v>
-                </c:pt>
-                <c:pt idx="228">
-                  <c:v>220</c:v>
-                </c:pt>
-                <c:pt idx="229">
-                  <c:v>215</c:v>
-                </c:pt>
-                <c:pt idx="230">
-                  <c:v>223</c:v>
-                </c:pt>
-                <c:pt idx="231">
-                  <c:v>212</c:v>
-                </c:pt>
-                <c:pt idx="232">
-                  <c:v>221</c:v>
-                </c:pt>
-                <c:pt idx="233">
-                  <c:v>212</c:v>
-                </c:pt>
-                <c:pt idx="234">
-                  <c:v>224</c:v>
-                </c:pt>
-                <c:pt idx="235">
-                  <c:v>212</c:v>
-                </c:pt>
-                <c:pt idx="236">
-                  <c:v>228</c:v>
-                </c:pt>
-                <c:pt idx="237">
-                  <c:v>218</c:v>
-                </c:pt>
-                <c:pt idx="238">
-                  <c:v>218</c:v>
-                </c:pt>
-                <c:pt idx="239">
-                  <c:v>212</c:v>
-                </c:pt>
-                <c:pt idx="240">
-                  <c:v>230</c:v>
-                </c:pt>
-                <c:pt idx="241">
-                  <c:v>218</c:v>
-                </c:pt>
-                <c:pt idx="242">
-                  <c:v>228</c:v>
-                </c:pt>
-                <c:pt idx="243">
-                  <c:v>212</c:v>
-                </c:pt>
-                <c:pt idx="244">
-                  <c:v>224</c:v>
-                </c:pt>
-                <c:pt idx="245">
-                  <c:v>214</c:v>
-                </c:pt>
-                <c:pt idx="246">
-                  <c:v>226</c:v>
-                </c:pt>
-                <c:pt idx="247">
-                  <c:v>216</c:v>
-                </c:pt>
-                <c:pt idx="248">
-                  <c:v>222</c:v>
-                </c:pt>
-                <c:pt idx="249">
-                  <c:v>203</c:v>
-                </c:pt>
-                <c:pt idx="250">
-                  <c:v>225</c:v>
-                </c:pt>
-                <c:pt idx="251">
-                  <c:v>219</c:v>
-                </c:pt>
-                <c:pt idx="252">
-                  <c:v>228</c:v>
-                </c:pt>
-                <c:pt idx="253">
-                  <c:v>215</c:v>
-                </c:pt>
-                <c:pt idx="254">
-                  <c:v>228</c:v>
-                </c:pt>
-                <c:pt idx="255">
-                  <c:v>216</c:v>
-                </c:pt>
-                <c:pt idx="256">
-                  <c:v>215</c:v>
-                </c:pt>
-                <c:pt idx="257">
-                  <c:v>210</c:v>
-                </c:pt>
-                <c:pt idx="258">
-                  <c:v>219</c:v>
-                </c:pt>
-                <c:pt idx="259">
-                  <c:v>208</c:v>
-                </c:pt>
-                <c:pt idx="260">
-                  <c:v>209</c:v>
-                </c:pt>
-                <c:pt idx="261">
-                  <c:v>216</c:v>
-                </c:pt>
-                <c:pt idx="262">
-                  <c:v>229</c:v>
-                </c:pt>
-                <c:pt idx="263">
-                  <c:v>213</c:v>
-                </c:pt>
-                <c:pt idx="264">
-                  <c:v>230</c:v>
-                </c:pt>
-                <c:pt idx="265">
-                  <c:v>217</c:v>
-                </c:pt>
-                <c:pt idx="266">
-                  <c:v>230</c:v>
-                </c:pt>
-                <c:pt idx="267">
-                  <c:v>217</c:v>
-                </c:pt>
-                <c:pt idx="268">
-                  <c:v>222</c:v>
-                </c:pt>
-                <c:pt idx="269">
-                  <c:v>214</c:v>
-                </c:pt>
-                <c:pt idx="270">
-                  <c:v>215</c:v>
-                </c:pt>
-                <c:pt idx="271">
-                  <c:v>222</c:v>
-                </c:pt>
-                <c:pt idx="272">
-                  <c:v>212</c:v>
-                </c:pt>
-                <c:pt idx="273">
-                  <c:v>213</c:v>
-                </c:pt>
-                <c:pt idx="274">
-                  <c:v>192</c:v>
-                </c:pt>
-                <c:pt idx="275">
-                  <c:v>196</c:v>
-                </c:pt>
-                <c:pt idx="276">
-                  <c:v>193</c:v>
-                </c:pt>
-                <c:pt idx="277">
-                  <c:v>188</c:v>
-                </c:pt>
-                <c:pt idx="278">
-                  <c:v>197</c:v>
-                </c:pt>
-                <c:pt idx="279">
-                  <c:v>198</c:v>
-                </c:pt>
-                <c:pt idx="280">
-                  <c:v>178</c:v>
-                </c:pt>
-                <c:pt idx="281">
-                  <c:v>197</c:v>
-                </c:pt>
-                <c:pt idx="282">
-                  <c:v>195</c:v>
-                </c:pt>
-                <c:pt idx="283">
-                  <c:v>198</c:v>
-                </c:pt>
-                <c:pt idx="284">
-                  <c:v>193</c:v>
-                </c:pt>
-                <c:pt idx="285">
-                  <c:v>194</c:v>
-                </c:pt>
-                <c:pt idx="286">
-                  <c:v>185</c:v>
-                </c:pt>
-                <c:pt idx="287">
-                  <c:v>201</c:v>
-                </c:pt>
-                <c:pt idx="288">
-                  <c:v>190</c:v>
-                </c:pt>
-                <c:pt idx="289">
-                  <c:v>201</c:v>
-                </c:pt>
-                <c:pt idx="290">
-                  <c:v>197</c:v>
-                </c:pt>
-                <c:pt idx="291">
-                  <c:v>181</c:v>
-                </c:pt>
-                <c:pt idx="292">
-                  <c:v>190</c:v>
-                </c:pt>
-                <c:pt idx="293">
-                  <c:v>195</c:v>
-                </c:pt>
-                <c:pt idx="294">
-                  <c:v>181</c:v>
-                </c:pt>
-                <c:pt idx="295">
-                  <c:v>191</c:v>
-                </c:pt>
-                <c:pt idx="296">
-                  <c:v>187</c:v>
-                </c:pt>
-                <c:pt idx="297">
-                  <c:v>193</c:v>
-                </c:pt>
-                <c:pt idx="298">
-                  <c:v>195</c:v>
-                </c:pt>
-                <c:pt idx="299">
-                  <c:v>197</c:v>
-                </c:pt>
-                <c:pt idx="300">
-                  <c:v>200</c:v>
-                </c:pt>
-                <c:pt idx="301">
-                  <c:v>200</c:v>
-                </c:pt>
-                <c:pt idx="302">
-                  <c:v>191</c:v>
-                </c:pt>
-                <c:pt idx="303">
-                  <c:v>205</c:v>
-                </c:pt>
-                <c:pt idx="304">
-                  <c:v>187</c:v>
-                </c:pt>
-                <c:pt idx="305">
-                  <c:v>201</c:v>
-                </c:pt>
-                <c:pt idx="306">
-                  <c:v>187</c:v>
-                </c:pt>
-                <c:pt idx="307">
-                  <c:v>203</c:v>
-                </c:pt>
-                <c:pt idx="308">
-                  <c:v>195</c:v>
-                </c:pt>
-                <c:pt idx="309">
-                  <c:v>199</c:v>
-                </c:pt>
-                <c:pt idx="310">
-                  <c:v>195</c:v>
-                </c:pt>
-                <c:pt idx="311">
-                  <c:v>210</c:v>
-                </c:pt>
-                <c:pt idx="312">
-                  <c:v>192</c:v>
-                </c:pt>
-                <c:pt idx="313">
-                  <c:v>205</c:v>
-                </c:pt>
-                <c:pt idx="314">
-                  <c:v>210</c:v>
-                </c:pt>
-                <c:pt idx="315">
-                  <c:v>187</c:v>
-                </c:pt>
-                <c:pt idx="316">
-                  <c:v>196</c:v>
-                </c:pt>
-                <c:pt idx="317">
-                  <c:v>196</c:v>
-                </c:pt>
-                <c:pt idx="318">
-                  <c:v>196</c:v>
-                </c:pt>
-                <c:pt idx="319">
-                  <c:v>201</c:v>
-                </c:pt>
-                <c:pt idx="320">
-                  <c:v>190</c:v>
-                </c:pt>
-                <c:pt idx="321">
-                  <c:v>212</c:v>
-                </c:pt>
-                <c:pt idx="322">
-                  <c:v>187</c:v>
-                </c:pt>
-                <c:pt idx="323">
-                  <c:v>198</c:v>
-                </c:pt>
-                <c:pt idx="324">
-                  <c:v>199</c:v>
-                </c:pt>
-                <c:pt idx="325">
-                  <c:v>201</c:v>
-                </c:pt>
-                <c:pt idx="326">
-                  <c:v>193</c:v>
-                </c:pt>
-                <c:pt idx="327">
-                  <c:v>203</c:v>
-                </c:pt>
-                <c:pt idx="328">
-                  <c:v>187</c:v>
-                </c:pt>
-                <c:pt idx="329">
-                  <c:v>197</c:v>
-                </c:pt>
-                <c:pt idx="330">
-                  <c:v>191</c:v>
-                </c:pt>
-                <c:pt idx="331">
-                  <c:v>203</c:v>
-                </c:pt>
-                <c:pt idx="332">
-                  <c:v>202</c:v>
-                </c:pt>
-                <c:pt idx="333">
-                  <c:v>194</c:v>
-                </c:pt>
-                <c:pt idx="334">
-                  <c:v>206</c:v>
-                </c:pt>
-                <c:pt idx="335">
-                  <c:v>189</c:v>
-                </c:pt>
-                <c:pt idx="336">
-                  <c:v>195</c:v>
-                </c:pt>
-                <c:pt idx="337">
-                  <c:v>207</c:v>
-                </c:pt>
-                <c:pt idx="338">
-                  <c:v>202</c:v>
-                </c:pt>
-                <c:pt idx="339">
-                  <c:v>193</c:v>
-                </c:pt>
-                <c:pt idx="340">
-                  <c:v>210</c:v>
-                </c:pt>
-                <c:pt idx="341">
-                  <c:v>198</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>kf_excel_penglings!$G$2:$G$345</c:f>
+              <c:f>kf_excel_penglings!$G$2:$G$153</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="342"/>
+                <c:ptCount val="151"/>
                 <c:pt idx="0">
                   <c:v>3750</c:v>
                 </c:pt>
@@ -2166,579 +1591,6 @@
                 </c:pt>
                 <c:pt idx="150">
                   <c:v>4000</c:v>
-                </c:pt>
-                <c:pt idx="151">
-                  <c:v>4500</c:v>
-                </c:pt>
-                <c:pt idx="152">
-                  <c:v>5700</c:v>
-                </c:pt>
-                <c:pt idx="153">
-                  <c:v>4450</c:v>
-                </c:pt>
-                <c:pt idx="154">
-                  <c:v>5700</c:v>
-                </c:pt>
-                <c:pt idx="155">
-                  <c:v>5400</c:v>
-                </c:pt>
-                <c:pt idx="156">
-                  <c:v>4550</c:v>
-                </c:pt>
-                <c:pt idx="157">
-                  <c:v>4800</c:v>
-                </c:pt>
-                <c:pt idx="158">
-                  <c:v>5200</c:v>
-                </c:pt>
-                <c:pt idx="159">
-                  <c:v>4400</c:v>
-                </c:pt>
-                <c:pt idx="160">
-                  <c:v>5150</c:v>
-                </c:pt>
-                <c:pt idx="161">
-                  <c:v>4650</c:v>
-                </c:pt>
-                <c:pt idx="162">
-                  <c:v>5550</c:v>
-                </c:pt>
-                <c:pt idx="163">
-                  <c:v>4650</c:v>
-                </c:pt>
-                <c:pt idx="164">
-                  <c:v>5850</c:v>
-                </c:pt>
-                <c:pt idx="165">
-                  <c:v>4200</c:v>
-                </c:pt>
-                <c:pt idx="166">
-                  <c:v>5850</c:v>
-                </c:pt>
-                <c:pt idx="167">
-                  <c:v>4150</c:v>
-                </c:pt>
-                <c:pt idx="168">
-                  <c:v>6300</c:v>
-                </c:pt>
-                <c:pt idx="169">
-                  <c:v>4800</c:v>
-                </c:pt>
-                <c:pt idx="170">
-                  <c:v>5350</c:v>
-                </c:pt>
-                <c:pt idx="171">
-                  <c:v>5700</c:v>
-                </c:pt>
-                <c:pt idx="172">
-                  <c:v>5000</c:v>
-                </c:pt>
-                <c:pt idx="173">
-                  <c:v>4400</c:v>
-                </c:pt>
-                <c:pt idx="174">
-                  <c:v>5050</c:v>
-                </c:pt>
-                <c:pt idx="175">
-                  <c:v>5000</c:v>
-                </c:pt>
-                <c:pt idx="176">
-                  <c:v>5100</c:v>
-                </c:pt>
-                <c:pt idx="177">
-                  <c:v>4100</c:v>
-                </c:pt>
-                <c:pt idx="178">
-                  <c:v>5650</c:v>
-                </c:pt>
-                <c:pt idx="179">
-                  <c:v>4600</c:v>
-                </c:pt>
-                <c:pt idx="180">
-                  <c:v>5550</c:v>
-                </c:pt>
-                <c:pt idx="181">
-                  <c:v>5250</c:v>
-                </c:pt>
-                <c:pt idx="182">
-                  <c:v>4700</c:v>
-                </c:pt>
-                <c:pt idx="183">
-                  <c:v>5050</c:v>
-                </c:pt>
-                <c:pt idx="184">
-                  <c:v>6050</c:v>
-                </c:pt>
-                <c:pt idx="185">
-                  <c:v>5150</c:v>
-                </c:pt>
-                <c:pt idx="186">
-                  <c:v>5400</c:v>
-                </c:pt>
-                <c:pt idx="187">
-                  <c:v>4950</c:v>
-                </c:pt>
-                <c:pt idx="188">
-                  <c:v>5250</c:v>
-                </c:pt>
-                <c:pt idx="189">
-                  <c:v>4350</c:v>
-                </c:pt>
-                <c:pt idx="190">
-                  <c:v>5350</c:v>
-                </c:pt>
-                <c:pt idx="191">
-                  <c:v>3950</c:v>
-                </c:pt>
-                <c:pt idx="192">
-                  <c:v>5700</c:v>
-                </c:pt>
-                <c:pt idx="193">
-                  <c:v>4300</c:v>
-                </c:pt>
-                <c:pt idx="194">
-                  <c:v>4750</c:v>
-                </c:pt>
-                <c:pt idx="195">
-                  <c:v>5550</c:v>
-                </c:pt>
-                <c:pt idx="196">
-                  <c:v>4900</c:v>
-                </c:pt>
-                <c:pt idx="197">
-                  <c:v>4200</c:v>
-                </c:pt>
-                <c:pt idx="198">
-                  <c:v>5400</c:v>
-                </c:pt>
-                <c:pt idx="199">
-                  <c:v>5100</c:v>
-                </c:pt>
-                <c:pt idx="200">
-                  <c:v>5300</c:v>
-                </c:pt>
-                <c:pt idx="201">
-                  <c:v>4850</c:v>
-                </c:pt>
-                <c:pt idx="202">
-                  <c:v>5300</c:v>
-                </c:pt>
-                <c:pt idx="203">
-                  <c:v>4400</c:v>
-                </c:pt>
-                <c:pt idx="204">
-                  <c:v>5000</c:v>
-                </c:pt>
-                <c:pt idx="205">
-                  <c:v>4900</c:v>
-                </c:pt>
-                <c:pt idx="206">
-                  <c:v>5050</c:v>
-                </c:pt>
-                <c:pt idx="207">
-                  <c:v>4300</c:v>
-                </c:pt>
-                <c:pt idx="208">
-                  <c:v>5000</c:v>
-                </c:pt>
-                <c:pt idx="209">
-                  <c:v>4450</c:v>
-                </c:pt>
-                <c:pt idx="210">
-                  <c:v>5550</c:v>
-                </c:pt>
-                <c:pt idx="211">
-                  <c:v>4200</c:v>
-                </c:pt>
-                <c:pt idx="212">
-                  <c:v>5300</c:v>
-                </c:pt>
-                <c:pt idx="213">
-                  <c:v>4400</c:v>
-                </c:pt>
-                <c:pt idx="214">
-                  <c:v>5650</c:v>
-                </c:pt>
-                <c:pt idx="215">
-                  <c:v>4700</c:v>
-                </c:pt>
-                <c:pt idx="216">
-                  <c:v>5700</c:v>
-                </c:pt>
-                <c:pt idx="217">
-                  <c:v>4650</c:v>
-                </c:pt>
-                <c:pt idx="218">
-                  <c:v>5800</c:v>
-                </c:pt>
-                <c:pt idx="219">
-                  <c:v>4700</c:v>
-                </c:pt>
-                <c:pt idx="220">
-                  <c:v>5550</c:v>
-                </c:pt>
-                <c:pt idx="221">
-                  <c:v>4750</c:v>
-                </c:pt>
-                <c:pt idx="222">
-                  <c:v>5000</c:v>
-                </c:pt>
-                <c:pt idx="223">
-                  <c:v>5100</c:v>
-                </c:pt>
-                <c:pt idx="224">
-                  <c:v>5200</c:v>
-                </c:pt>
-                <c:pt idx="225">
-                  <c:v>4700</c:v>
-                </c:pt>
-                <c:pt idx="226">
-                  <c:v>5800</c:v>
-                </c:pt>
-                <c:pt idx="227">
-                  <c:v>4600</c:v>
-                </c:pt>
-                <c:pt idx="228">
-                  <c:v>6000</c:v>
-                </c:pt>
-                <c:pt idx="229">
-                  <c:v>4750</c:v>
-                </c:pt>
-                <c:pt idx="230">
-                  <c:v>5950</c:v>
-                </c:pt>
-                <c:pt idx="231">
-                  <c:v>4625</c:v>
-                </c:pt>
-                <c:pt idx="232">
-                  <c:v>5450</c:v>
-                </c:pt>
-                <c:pt idx="233">
-                  <c:v>4725</c:v>
-                </c:pt>
-                <c:pt idx="234">
-                  <c:v>5350</c:v>
-                </c:pt>
-                <c:pt idx="235">
-                  <c:v>4750</c:v>
-                </c:pt>
-                <c:pt idx="236">
-                  <c:v>5600</c:v>
-                </c:pt>
-                <c:pt idx="237">
-                  <c:v>4600</c:v>
-                </c:pt>
-                <c:pt idx="238">
-                  <c:v>5300</c:v>
-                </c:pt>
-                <c:pt idx="239">
-                  <c:v>4875</c:v>
-                </c:pt>
-                <c:pt idx="240">
-                  <c:v>5550</c:v>
-                </c:pt>
-                <c:pt idx="241">
-                  <c:v>4950</c:v>
-                </c:pt>
-                <c:pt idx="242">
-                  <c:v>5400</c:v>
-                </c:pt>
-                <c:pt idx="243">
-                  <c:v>4750</c:v>
-                </c:pt>
-                <c:pt idx="244">
-                  <c:v>5650</c:v>
-                </c:pt>
-                <c:pt idx="245">
-                  <c:v>4850</c:v>
-                </c:pt>
-                <c:pt idx="246">
-                  <c:v>5200</c:v>
-                </c:pt>
-                <c:pt idx="247">
-                  <c:v>4925</c:v>
-                </c:pt>
-                <c:pt idx="248">
-                  <c:v>4875</c:v>
-                </c:pt>
-                <c:pt idx="249">
-                  <c:v>4625</c:v>
-                </c:pt>
-                <c:pt idx="250">
-                  <c:v>5250</c:v>
-                </c:pt>
-                <c:pt idx="251">
-                  <c:v>4850</c:v>
-                </c:pt>
-                <c:pt idx="252">
-                  <c:v>5600</c:v>
-                </c:pt>
-                <c:pt idx="253">
-                  <c:v>4975</c:v>
-                </c:pt>
-                <c:pt idx="254">
-                  <c:v>5500</c:v>
-                </c:pt>
-                <c:pt idx="255">
-                  <c:v>4725</c:v>
-                </c:pt>
-                <c:pt idx="256">
-                  <c:v>5500</c:v>
-                </c:pt>
-                <c:pt idx="257">
-                  <c:v>4700</c:v>
-                </c:pt>
-                <c:pt idx="258">
-                  <c:v>5500</c:v>
-                </c:pt>
-                <c:pt idx="259">
-                  <c:v>4575</c:v>
-                </c:pt>
-                <c:pt idx="260">
-                  <c:v>5500</c:v>
-                </c:pt>
-                <c:pt idx="261">
-                  <c:v>5000</c:v>
-                </c:pt>
-                <c:pt idx="262">
-                  <c:v>5950</c:v>
-                </c:pt>
-                <c:pt idx="263">
-                  <c:v>4650</c:v>
-                </c:pt>
-                <c:pt idx="264">
-                  <c:v>5500</c:v>
-                </c:pt>
-                <c:pt idx="265">
-                  <c:v>4375</c:v>
-                </c:pt>
-                <c:pt idx="266">
-                  <c:v>5850</c:v>
-                </c:pt>
-                <c:pt idx="267">
-                  <c:v>4875</c:v>
-                </c:pt>
-                <c:pt idx="268">
-                  <c:v>6000</c:v>
-                </c:pt>
-                <c:pt idx="269">
-                  <c:v>4925</c:v>
-                </c:pt>
-                <c:pt idx="270">
-                  <c:v>4850</c:v>
-                </c:pt>
-                <c:pt idx="271">
-                  <c:v>5750</c:v>
-                </c:pt>
-                <c:pt idx="272">
-                  <c:v>5200</c:v>
-                </c:pt>
-                <c:pt idx="273">
-                  <c:v>5400</c:v>
-                </c:pt>
-                <c:pt idx="274">
-                  <c:v>3500</c:v>
-                </c:pt>
-                <c:pt idx="275">
-                  <c:v>3900</c:v>
-                </c:pt>
-                <c:pt idx="276">
-                  <c:v>3650</c:v>
-                </c:pt>
-                <c:pt idx="277">
-                  <c:v>3525</c:v>
-                </c:pt>
-                <c:pt idx="278">
-                  <c:v>3725</c:v>
-                </c:pt>
-                <c:pt idx="279">
-                  <c:v>3950</c:v>
-                </c:pt>
-                <c:pt idx="280">
-                  <c:v>3250</c:v>
-                </c:pt>
-                <c:pt idx="281">
-                  <c:v>3750</c:v>
-                </c:pt>
-                <c:pt idx="282">
-                  <c:v>4150</c:v>
-                </c:pt>
-                <c:pt idx="283">
-                  <c:v>3700</c:v>
-                </c:pt>
-                <c:pt idx="284">
-                  <c:v>3800</c:v>
-                </c:pt>
-                <c:pt idx="285">
-                  <c:v>3775</c:v>
-                </c:pt>
-                <c:pt idx="286">
-                  <c:v>3700</c:v>
-                </c:pt>
-                <c:pt idx="287">
-                  <c:v>4050</c:v>
-                </c:pt>
-                <c:pt idx="288">
-                  <c:v>3575</c:v>
-                </c:pt>
-                <c:pt idx="289">
-                  <c:v>4050</c:v>
-                </c:pt>
-                <c:pt idx="290">
-                  <c:v>3300</c:v>
-                </c:pt>
-                <c:pt idx="291">
-                  <c:v>3700</c:v>
-                </c:pt>
-                <c:pt idx="292">
-                  <c:v>3450</c:v>
-                </c:pt>
-                <c:pt idx="293">
-                  <c:v>4400</c:v>
-                </c:pt>
-                <c:pt idx="294">
-                  <c:v>3600</c:v>
-                </c:pt>
-                <c:pt idx="295">
-                  <c:v>3400</c:v>
-                </c:pt>
-                <c:pt idx="296">
-                  <c:v>2900</c:v>
-                </c:pt>
-                <c:pt idx="297">
-                  <c:v>3800</c:v>
-                </c:pt>
-                <c:pt idx="298">
-                  <c:v>3300</c:v>
-                </c:pt>
-                <c:pt idx="299">
-                  <c:v>4150</c:v>
-                </c:pt>
-                <c:pt idx="300">
-                  <c:v>3400</c:v>
-                </c:pt>
-                <c:pt idx="301">
-                  <c:v>3800</c:v>
-                </c:pt>
-                <c:pt idx="302">
-                  <c:v>3700</c:v>
-                </c:pt>
-                <c:pt idx="303">
-                  <c:v>4550</c:v>
-                </c:pt>
-                <c:pt idx="304">
-                  <c:v>3200</c:v>
-                </c:pt>
-                <c:pt idx="305">
-                  <c:v>4300</c:v>
-                </c:pt>
-                <c:pt idx="306">
-                  <c:v>3350</c:v>
-                </c:pt>
-                <c:pt idx="307">
-                  <c:v>4100</c:v>
-                </c:pt>
-                <c:pt idx="308">
-                  <c:v>3600</c:v>
-                </c:pt>
-                <c:pt idx="309">
-                  <c:v>3900</c:v>
-                </c:pt>
-                <c:pt idx="310">
-                  <c:v>3850</c:v>
-                </c:pt>
-                <c:pt idx="311">
-                  <c:v>4800</c:v>
-                </c:pt>
-                <c:pt idx="312">
-                  <c:v>2700</c:v>
-                </c:pt>
-                <c:pt idx="313">
-                  <c:v>4500</c:v>
-                </c:pt>
-                <c:pt idx="314">
-                  <c:v>3950</c:v>
-                </c:pt>
-                <c:pt idx="315">
-                  <c:v>3650</c:v>
-                </c:pt>
-                <c:pt idx="316">
-                  <c:v>3550</c:v>
-                </c:pt>
-                <c:pt idx="317">
-                  <c:v>3500</c:v>
-                </c:pt>
-                <c:pt idx="318">
-                  <c:v>3675</c:v>
-                </c:pt>
-                <c:pt idx="319">
-                  <c:v>4450</c:v>
-                </c:pt>
-                <c:pt idx="320">
-                  <c:v>3400</c:v>
-                </c:pt>
-                <c:pt idx="321">
-                  <c:v>4300</c:v>
-                </c:pt>
-                <c:pt idx="322">
-                  <c:v>3250</c:v>
-                </c:pt>
-                <c:pt idx="323">
-                  <c:v>3675</c:v>
-                </c:pt>
-                <c:pt idx="324">
-                  <c:v>3325</c:v>
-                </c:pt>
-                <c:pt idx="325">
-                  <c:v>3950</c:v>
-                </c:pt>
-                <c:pt idx="326">
-                  <c:v>3600</c:v>
-                </c:pt>
-                <c:pt idx="327">
-                  <c:v>4050</c:v>
-                </c:pt>
-                <c:pt idx="328">
-                  <c:v>3350</c:v>
-                </c:pt>
-                <c:pt idx="329">
-                  <c:v>3450</c:v>
-                </c:pt>
-                <c:pt idx="330">
-                  <c:v>3250</c:v>
-                </c:pt>
-                <c:pt idx="331">
-                  <c:v>4050</c:v>
-                </c:pt>
-                <c:pt idx="332">
-                  <c:v>3800</c:v>
-                </c:pt>
-                <c:pt idx="333">
-                  <c:v>3525</c:v>
-                </c:pt>
-                <c:pt idx="334">
-                  <c:v>3950</c:v>
-                </c:pt>
-                <c:pt idx="335">
-                  <c:v>3650</c:v>
-                </c:pt>
-                <c:pt idx="336">
-                  <c:v>3650</c:v>
-                </c:pt>
-                <c:pt idx="337">
-                  <c:v>4000</c:v>
-                </c:pt>
-                <c:pt idx="338">
-                  <c:v>3400</c:v>
-                </c:pt>
-                <c:pt idx="339">
-                  <c:v>3775</c:v>
-                </c:pt>
-                <c:pt idx="340">
-                  <c:v>4100</c:v>
-                </c:pt>
-                <c:pt idx="341">
-                  <c:v>3775</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2746,7 +1598,1259 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-15A1-46EF-AEF3-1627206F7442}"/>
+              <c16:uniqueId val="{00000000-FD45-4180-B1B8-25EEFD84FE6E}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>Gentoo</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="21C1A6">
+                  <a:alpha val="70000"/>
+                </a:srgbClr>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>kf_excel_penglings!$F$154:$F$277</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="123"/>
+                <c:pt idx="0">
+                  <c:v>211</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>230</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>210</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>218</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>215</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>210</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>211</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>219</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>209</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>215</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>214</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>216</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>214</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>213</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>210</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>217</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>210</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>221</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>209</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>222</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>218</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>215</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>213</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>215</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>215</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>215</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>216</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>215</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>210</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>220</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>222</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>209</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>207</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>230</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>220</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>220</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>213</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>219</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>208</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>208</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>208</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>225</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>210</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>216</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>222</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>217</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>210</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>225</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>213</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>215</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>210</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>220</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>210</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>225</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>217</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>220</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>208</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>220</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>208</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>224</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>208</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>221</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>214</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>231</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>219</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>230</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>214</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>229</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>220</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>223</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>216</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>221</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>221</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>217</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>216</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>230</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>209</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>220</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>215</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>223</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>212</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>221</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>212</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>224</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>212</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>228</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>218</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>218</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>212</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>230</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>218</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>228</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>212</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>224</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>214</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>226</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>216</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>222</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>203</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>225</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>219</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>228</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>215</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>228</c:v>
+                </c:pt>
+                <c:pt idx="104">
+                  <c:v>216</c:v>
+                </c:pt>
+                <c:pt idx="105">
+                  <c:v>215</c:v>
+                </c:pt>
+                <c:pt idx="106">
+                  <c:v>210</c:v>
+                </c:pt>
+                <c:pt idx="107">
+                  <c:v>219</c:v>
+                </c:pt>
+                <c:pt idx="108">
+                  <c:v>208</c:v>
+                </c:pt>
+                <c:pt idx="109">
+                  <c:v>209</c:v>
+                </c:pt>
+                <c:pt idx="110">
+                  <c:v>216</c:v>
+                </c:pt>
+                <c:pt idx="111">
+                  <c:v>229</c:v>
+                </c:pt>
+                <c:pt idx="112">
+                  <c:v>213</c:v>
+                </c:pt>
+                <c:pt idx="113">
+                  <c:v>230</c:v>
+                </c:pt>
+                <c:pt idx="114">
+                  <c:v>217</c:v>
+                </c:pt>
+                <c:pt idx="115">
+                  <c:v>230</c:v>
+                </c:pt>
+                <c:pt idx="116">
+                  <c:v>217</c:v>
+                </c:pt>
+                <c:pt idx="117">
+                  <c:v>222</c:v>
+                </c:pt>
+                <c:pt idx="118">
+                  <c:v>214</c:v>
+                </c:pt>
+                <c:pt idx="119">
+                  <c:v>215</c:v>
+                </c:pt>
+                <c:pt idx="120">
+                  <c:v>222</c:v>
+                </c:pt>
+                <c:pt idx="121">
+                  <c:v>212</c:v>
+                </c:pt>
+                <c:pt idx="122">
+                  <c:v>213</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>kf_excel_penglings!$G$154:$G$277</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="123"/>
+                <c:pt idx="0">
+                  <c:v>4500</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5700</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4450</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5700</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5400</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>4550</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>4800</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>5200</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>4400</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>5150</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>4650</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>5550</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>4650</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>5850</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>4200</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>5850</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>4150</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>6300</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>4800</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>5350</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>5700</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>5000</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>4400</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>5050</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>5000</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>5100</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>4100</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>5650</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>4600</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>5550</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>5250</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>4700</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>5050</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>6050</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>5150</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>5400</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>4950</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>5250</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>4350</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>5350</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>3950</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>5700</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>4300</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>4750</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>5550</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>4900</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>4200</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>5400</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>5100</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>5300</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>4850</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>5300</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>4400</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>5000</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>4900</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>5050</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>4300</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>5000</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>4450</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>5550</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>4200</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>5300</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>4400</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>5650</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>4700</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>5700</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>4650</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>5800</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>4700</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>5550</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>4750</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>5000</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>5100</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>5200</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>4700</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>5800</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>4600</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>6000</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>4750</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>5950</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>4625</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>5450</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>4725</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>5350</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>4750</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>5600</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>4600</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>5300</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>4875</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>5550</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>4950</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>5400</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>4750</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>5650</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>4850</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>5200</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>4925</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>4875</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>4625</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>5250</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>4850</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>5600</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>4975</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>5500</c:v>
+                </c:pt>
+                <c:pt idx="104">
+                  <c:v>4725</c:v>
+                </c:pt>
+                <c:pt idx="105">
+                  <c:v>5500</c:v>
+                </c:pt>
+                <c:pt idx="106">
+                  <c:v>4700</c:v>
+                </c:pt>
+                <c:pt idx="107">
+                  <c:v>5500</c:v>
+                </c:pt>
+                <c:pt idx="108">
+                  <c:v>4575</c:v>
+                </c:pt>
+                <c:pt idx="109">
+                  <c:v>5500</c:v>
+                </c:pt>
+                <c:pt idx="110">
+                  <c:v>5000</c:v>
+                </c:pt>
+                <c:pt idx="111">
+                  <c:v>5950</c:v>
+                </c:pt>
+                <c:pt idx="112">
+                  <c:v>4650</c:v>
+                </c:pt>
+                <c:pt idx="113">
+                  <c:v>5500</c:v>
+                </c:pt>
+                <c:pt idx="114">
+                  <c:v>4375</c:v>
+                </c:pt>
+                <c:pt idx="115">
+                  <c:v>5850</c:v>
+                </c:pt>
+                <c:pt idx="116">
+                  <c:v>4875</c:v>
+                </c:pt>
+                <c:pt idx="117">
+                  <c:v>6000</c:v>
+                </c:pt>
+                <c:pt idx="118">
+                  <c:v>4925</c:v>
+                </c:pt>
+                <c:pt idx="119">
+                  <c:v>4850</c:v>
+                </c:pt>
+                <c:pt idx="120">
+                  <c:v>5750</c:v>
+                </c:pt>
+                <c:pt idx="121">
+                  <c:v>5200</c:v>
+                </c:pt>
+                <c:pt idx="122">
+                  <c:v>5400</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-FD45-4180-B1B8-25EEFD84FE6E}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:v>Chinstrap</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="D256C3">
+                  <a:alpha val="70000"/>
+                </a:srgbClr>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>kf_excel_penglings!$F$278:$F$345</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="68"/>
+                <c:pt idx="0">
+                  <c:v>192</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>196</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>193</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>188</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>197</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>198</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>178</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>197</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>195</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>198</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>193</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>194</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>185</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>201</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>190</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>201</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>197</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>181</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>190</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>195</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>181</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>191</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>187</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>193</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>195</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>197</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>200</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>200</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>191</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>205</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>187</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>201</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>187</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>203</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>195</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>199</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>195</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>210</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>192</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>205</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>210</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>187</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>196</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>196</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>196</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>201</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>190</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>212</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>187</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>198</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>199</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>201</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>193</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>203</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>187</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>197</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>191</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>203</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>202</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>194</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>206</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>189</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>195</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>207</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>202</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>193</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>210</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>198</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>kf_excel_penglings!$G$278:$G$345</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="68"/>
+                <c:pt idx="0">
+                  <c:v>3500</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3900</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3650</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3525</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3725</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>3950</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>3250</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>3750</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>4150</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>3700</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>3800</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>3775</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>3700</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>4050</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>3575</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>4050</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>3300</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>3700</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>3450</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>4400</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>3600</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>3400</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>2900</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>3800</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>3300</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>4150</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>3400</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>3800</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>3700</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>4550</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>3200</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>4300</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>3350</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>4100</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>3600</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>3900</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>3850</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>4800</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>2700</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>4500</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>3950</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>3650</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>3550</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>3500</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>3675</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>4450</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>3400</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>4300</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>3250</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>3675</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>3325</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>3950</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>3600</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>4050</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>3350</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>3450</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>3250</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>4050</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>3800</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>3525</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>3950</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>3650</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>3650</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>4000</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>3400</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>3775</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>4100</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>3775</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-FD45-4180-B1B8-25EEFD84FE6E}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -3016,10 +3120,7 @@
     </a:solidFill>
     <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
       <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
+        <a:schemeClr val="accent1"/>
       </a:solidFill>
       <a:round/>
     </a:ln>
@@ -3604,15 +3705,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>452719</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>170330</xdr:rowOff>
+      <xdr:colOff>596155</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>80683</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>17</xdr:col>
-      <xdr:colOff>147919</xdr:colOff>
-      <xdr:row>21</xdr:row>
-      <xdr:rowOff>44824</xdr:rowOff>
+      <xdr:colOff>291355</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>134471</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -4037,8 +4138,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CA2D589A-6F7E-4317-8AE2-C5DD35030204}">
   <dimension ref="A1:I345"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" workbookViewId="0">
-      <selection activeCell="M26" sqref="M26"/>
+    <sheetView tabSelected="1" zoomScale="94" workbookViewId="0">
+      <selection activeCell="K21" sqref="K21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/all_visualizations/kf_excel_penglings.csv.xlsx
+++ b/all_visualizations/kf_excel_penglings.csv.xlsx
@@ -8,19 +8,32 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\klaud\WebstormProjects\klaudio-fusha-a2-datavis-5ways\a2-DataVis-5ways\all_visualizations\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F4112ED8-012D-410A-AF1A-ACBACD74EC77}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4009C333-5ECC-43EB-931B-82C8FF0B3C02}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{298BFD60-299E-47A5-8AF2-E192D2EEC218}"/>
   </bookViews>
   <sheets>
     <sheet name="kf_excel_penglings" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1049" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1053" uniqueCount="22">
   <si>
     <t>species</t>
   </si>
@@ -74,6 +87,18 @@
   </si>
   <si>
     <t>Pengling</t>
+  </si>
+  <si>
+    <t>Referred to https://support.microsoft.com/en-us/office/available-chart-types-in-office-a6187218-807e-4103-9e0a-27cdb19afb90 for using a bubble chart instead of a simple scatter chart (helps with sizing points)</t>
+  </si>
+  <si>
+    <t>Referred to https://www.tutorialspoint.com/how-to-adjust-the-bubble-size-in-a-bubble-chart-in-excel for changing the scale for the bubble sizes</t>
+  </si>
+  <si>
+    <t>bill_length_mm_normalized</t>
+  </si>
+  <si>
+    <t>Referred to https://www.geeksforgeeks.org/excel/how-to-normalize-data-in-excel/ for normalizing the bill length</t>
   </si>
 </sst>
 </file>
@@ -604,7 +629,11 @@
     <cellStyle name="Total" xfId="17" builtinId="25" customBuiltin="1"/>
     <cellStyle name="Warning Text" xfId="14" builtinId="11" customBuiltin="1"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="1">
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <mruColors>
@@ -637,11 +666,10 @@
     </mc:Fallback>
   </mc:AlternateContent>
   <c:chart>
-    <c:autoTitleDeleted val="1"/>
+    <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
-      <c:scatterChart>
-        <c:scatterStyle val="lineMarker"/>
+      <c:bubbleChart>
         <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
@@ -650,27 +678,17 @@
             <c:v>Adelie</c:v>
           </c:tx>
           <c:spPr>
-            <a:ln w="25400" cap="rnd">
+            <a:solidFill>
+              <a:schemeClr val="accent2">
+                <a:alpha val="70000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln>
               <a:noFill/>
-              <a:round/>
             </a:ln>
             <a:effectLst/>
           </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent2">
-                  <a:alpha val="70000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:noFill/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
+          <c:invertIfNegative val="0"/>
           <c:xVal>
             <c:numRef>
               <c:f>kf_excel_penglings!$F$2:$F$153</c:f>
@@ -1595,10 +1613,472 @@
               </c:numCache>
             </c:numRef>
           </c:yVal>
-          <c:smooth val="0"/>
+          <c:bubbleSize>
+            <c:numRef>
+              <c:f>kf_excel_penglings!$J$2:$J$153</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="151"/>
+                <c:pt idx="0">
+                  <c:v>50.909090909090907</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>53.818181818181813</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>59.636363636363612</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>33.454545454545467</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>52.363636363636331</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>49.454545454545432</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>51.636363636363647</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>14.545454545454545</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>71.999999999999986</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>41.454545454545425</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>41.454545454545425</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>65.454545454545453</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>47.272727272727273</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>18.181818181818183</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>32.727272727272727</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>48.000000000000007</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>75.636363636363626</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>16.727272727272709</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>101.09090909090908</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>41.454545454545425</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>40.727272727272741</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>27.636363636363615</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>44.363636363636374</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>48.727272727272698</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>23.272727272727241</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>61.818181818181813</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>61.090909090909086</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>42.181818181818159</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>61.090909090909086</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>53.818181818181813</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>37.090909090909101</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>53.818181818181813</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>63.999999999999979</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>31.272727272727252</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>51.636363636363647</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>48.727272727272698</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>73.454545454545467</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>55.999999999999972</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>31.999999999999989</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>63.272727272727245</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>28.363636363636353</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>87.272727272727266</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>35.636363636363626</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>54.54545454545454</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>65.454545454545453</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>39.272727272727266</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>28.363636363636353</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>74.181818181818144</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>54.54545454545454</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>58.18181818181818</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>21.090909090909079</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>71.999999999999986</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>17.454545454545446</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>67.636363636363612</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>50.181818181818173</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>61.818181818181813</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>31.999999999999989</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>26.181818181818191</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>66.909090909090878</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>65.454545454545453</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>31.272727272727252</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>69.090909090909093</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>24.727272727272716</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>65.454545454545453</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>27.636363636363615</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>70.545454545454504</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>10.181818181818171</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>55.272727272727288</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>54.54545454545454</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>99.636363636363598</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>24.727272727272716</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>77.818181818181785</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>63.999999999999979</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>37.090909090909101</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>29.818181818181827</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>72.727272727272734</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>18.181818181818183</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>78.545454545454533</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>33.454545454545467</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>21.818181818181817</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>37.818181818181792</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>66.909090909090878</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>30.545454545454515</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>34.909090909090892</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>45.090909090909058</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>49.454545454545432</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>26.181818181818191</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>65.454545454545453</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>13.818181818181808</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>54.54545454545454</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>29.818181818181827</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>63.272727272727245</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>43.636363636363633</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>59.636363636363612</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>7.2727272727272725</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>80.727272727272734</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>21.090909090909079</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>64.72727272727272</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>40.727272727272741</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>41.454545454545425</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>42.181818181818159</c:v>
+                </c:pt>
+                <c:pt idx="104">
+                  <c:v>55.272727272727288</c:v>
+                </c:pt>
+                <c:pt idx="105">
+                  <c:v>47.272727272727273</c:v>
+                </c:pt>
+                <c:pt idx="106">
+                  <c:v>44.363636363636374</c:v>
+                </c:pt>
+                <c:pt idx="107">
+                  <c:v>43.636363636363633</c:v>
+                </c:pt>
+                <c:pt idx="108">
+                  <c:v>80.727272727272734</c:v>
+                </c:pt>
+                <c:pt idx="109">
+                  <c:v>43.636363636363633</c:v>
+                </c:pt>
+                <c:pt idx="110">
+                  <c:v>98.181818181818187</c:v>
+                </c:pt>
+                <c:pt idx="111">
+                  <c:v>55.272727272727288</c:v>
+                </c:pt>
+                <c:pt idx="112">
+                  <c:v>73.454545454545467</c:v>
+                </c:pt>
+                <c:pt idx="113">
+                  <c:v>54.54545454545454</c:v>
+                </c:pt>
+                <c:pt idx="114">
+                  <c:v>77.090909090909093</c:v>
+                </c:pt>
+                <c:pt idx="115">
+                  <c:v>47.272727272727273</c:v>
+                </c:pt>
+                <c:pt idx="116">
+                  <c:v>37.818181818181792</c:v>
+                </c:pt>
+                <c:pt idx="117">
+                  <c:v>26.181818181818191</c:v>
+                </c:pt>
+                <c:pt idx="118">
+                  <c:v>65.454545454545453</c:v>
+                </c:pt>
+                <c:pt idx="119">
+                  <c:v>29.818181818181827</c:v>
+                </c:pt>
+                <c:pt idx="120">
+                  <c:v>40.727272727272741</c:v>
+                </c:pt>
+                <c:pt idx="121">
+                  <c:v>58.909090909090921</c:v>
+                </c:pt>
+                <c:pt idx="122">
+                  <c:v>67.636363636363612</c:v>
+                </c:pt>
+                <c:pt idx="123">
+                  <c:v>22.545454545454554</c:v>
+                </c:pt>
+                <c:pt idx="124">
+                  <c:v>61.818181818181813</c:v>
+                </c:pt>
+                <c:pt idx="125">
+                  <c:v>48.727272727272698</c:v>
+                </c:pt>
+                <c:pt idx="126">
+                  <c:v>68.363636363636346</c:v>
+                </c:pt>
+                <c:pt idx="127">
+                  <c:v>50.181818181818173</c:v>
+                </c:pt>
+                <c:pt idx="128">
+                  <c:v>87.272727272727266</c:v>
+                </c:pt>
+                <c:pt idx="129">
+                  <c:v>46.545454545454533</c:v>
+                </c:pt>
+                <c:pt idx="130">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="131">
+                  <c:v>34.181818181818151</c:v>
+                </c:pt>
+                <c:pt idx="132">
+                  <c:v>39.272727272727266</c:v>
+                </c:pt>
+                <c:pt idx="133">
+                  <c:v>43.636363636363633</c:v>
+                </c:pt>
+                <c:pt idx="134">
+                  <c:v>65.454545454545453</c:v>
+                </c:pt>
+                <c:pt idx="135">
+                  <c:v>25.454545454545453</c:v>
+                </c:pt>
+                <c:pt idx="136">
+                  <c:v>58.909090909090921</c:v>
+                </c:pt>
+                <c:pt idx="137">
+                  <c:v>35.636363636363626</c:v>
+                </c:pt>
+                <c:pt idx="138">
+                  <c:v>55.272727272727288</c:v>
+                </c:pt>
+                <c:pt idx="139">
+                  <c:v>58.909090909090921</c:v>
+                </c:pt>
+                <c:pt idx="140">
+                  <c:v>61.818181818181813</c:v>
+                </c:pt>
+                <c:pt idx="141">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="142">
+                  <c:v>62.545454545454561</c:v>
+                </c:pt>
+                <c:pt idx="143">
+                  <c:v>37.818181818181792</c:v>
+                </c:pt>
+                <c:pt idx="144">
+                  <c:v>50.181818181818173</c:v>
+                </c:pt>
+                <c:pt idx="145">
+                  <c:v>51.636363636363647</c:v>
+                </c:pt>
+                <c:pt idx="146">
+                  <c:v>32.727272727272727</c:v>
+                </c:pt>
+                <c:pt idx="147">
+                  <c:v>28.363636363636353</c:v>
+                </c:pt>
+                <c:pt idx="148">
+                  <c:v>41.454545454545425</c:v>
+                </c:pt>
+                <c:pt idx="149">
+                  <c:v>28.363636363636353</c:v>
+                </c:pt>
+                <c:pt idx="150">
+                  <c:v>68.363636363636346</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:bubbleSize>
+          <c:bubble3D val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-FD45-4180-B1B8-25EEFD84FE6E}"/>
+              <c16:uniqueId val="{00000000-E535-4BAB-9072-83E69108D070}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1609,27 +2089,17 @@
             <c:v>Gentoo</c:v>
           </c:tx>
           <c:spPr>
-            <a:ln w="25400" cap="rnd">
+            <a:solidFill>
+              <a:srgbClr val="21C1A6">
+                <a:alpha val="70000"/>
+              </a:srgbClr>
+            </a:solidFill>
+            <a:ln w="25400">
               <a:noFill/>
-              <a:round/>
             </a:ln>
             <a:effectLst/>
           </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:srgbClr val="21C1A6">
-                  <a:alpha val="70000"/>
-                </a:srgbClr>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:noFill/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
+          <c:invertIfNegative val="0"/>
           <c:xVal>
             <c:numRef>
               <c:f>kf_excel_penglings!$F$154:$F$277</c:f>
@@ -2386,10 +2856,388 @@
               </c:numCache>
             </c:numRef>
           </c:yVal>
-          <c:smooth val="0"/>
+          <c:bubbleSize>
+            <c:numRef>
+              <c:f>kf_excel_penglings!$J$154:$J$277</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="123"/>
+                <c:pt idx="0">
+                  <c:v>101.81818181818181</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>130.18181818181819</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>120.72727272727273</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>130.18181818181819</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>112.72727272727272</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>104.72727272727272</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>96.727272727272705</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>106.1818181818182</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>81.454545454545425</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>106.90909090909089</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>63.999999999999979</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>122.90909090909091</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>97.454545454545453</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>118.54545454545453</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>99.636363636363598</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>125.09090909090905</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>71.999999999999986</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>124.36363636363636</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>102.54545454545456</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>120.72727272727273</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>131.63636363636363</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>94.545454545454547</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>104.72727272727272</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>103.27272727272725</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>78.545454545454533</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>101.81818181818181</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>90.181818181818173</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>114.18181818181814</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>117.09090909090911</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>130.18181818181819</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>110.54545454545452</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>77.818181818181785</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>94.545454545454547</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>200</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>123.63636363636363</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>118.54545454545453</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>76.363636363636374</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>89.454545454545425</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>86.545454545454533</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>120.72727272727273</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>77.090909090909093</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>127.27272727272727</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>95.999999999999972</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>127.27272727272727</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>133.81818181818181</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>83.636363636363626</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>97.454545454545453</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>133.81818181818181</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>93.090909090909065</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>95.27272727272728</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>105.45454545454544</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>119.27272727272727</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>94.545454545454547</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>130.90909090909091</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>104.72727272727272</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>93.818181818181813</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>85.090909090909065</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>97.454545454545453</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>80.727272727272734</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>133.09090909090907</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>95.999999999999972</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>102.54545454545456</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>98.909090909090921</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>161.45454545454544</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>99.636363636363598</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>128.72727272727269</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>102.54545454545456</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>126.54545454545453</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>82.909090909090892</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>135.27272727272728</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>113.45454545454547</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>103.99999999999999</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>117.09090909090911</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>104.72727272727272</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>103.99999999999999</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>120</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>111.99999999999999</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>138.18181818181819</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>95.27272727272728</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>95.27272727272728</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>123.63636363636363</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>148.36363636363637</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>111.27272727272725</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>130.18181818181819</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>93.090909090909065</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>135.99999999999997</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>82.181818181818159</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>139.6363636363636</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>111.99999999999999</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>145.45454545454547</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>111.99999999999999</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>146.18181818181819</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>97.454545454545453</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>126.54545454545453</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>90.181818181818173</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>135.99999999999997</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>125.81818181818181</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>107.63636363636363</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>118.54545454545453</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>138.18181818181819</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>119.27272727272727</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>173.09090909090907</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>109.81818181818184</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>123.63636363636363</c:v>
+                </c:pt>
+                <c:pt idx="104">
+                  <c:v>110.54545454545452</c:v>
+                </c:pt>
+                <c:pt idx="105">
+                  <c:v>106.90909090909089</c:v>
+                </c:pt>
+                <c:pt idx="106">
+                  <c:v>69.818181818181827</c:v>
+                </c:pt>
+                <c:pt idx="107">
+                  <c:v>154.90909090909088</c:v>
+                </c:pt>
+                <c:pt idx="108">
+                  <c:v>81.454545454545425</c:v>
+                </c:pt>
+                <c:pt idx="109">
+                  <c:v>116.36363636363636</c:v>
+                </c:pt>
+                <c:pt idx="110">
+                  <c:v>133.81818181818181</c:v>
+                </c:pt>
+                <c:pt idx="111">
+                  <c:v>128.72727272727269</c:v>
+                </c:pt>
+                <c:pt idx="112">
+                  <c:v>82.909090909090892</c:v>
+                </c:pt>
+                <c:pt idx="113">
+                  <c:v>141.09090909090909</c:v>
+                </c:pt>
+                <c:pt idx="114">
+                  <c:v>102.54545454545456</c:v>
+                </c:pt>
+                <c:pt idx="115">
+                  <c:v>167.27272727272725</c:v>
+                </c:pt>
+                <c:pt idx="116">
+                  <c:v>90.181818181818173</c:v>
+                </c:pt>
+                <c:pt idx="117">
+                  <c:v>121.45454545454541</c:v>
+                </c:pt>
+                <c:pt idx="118">
+                  <c:v>109.81818181818184</c:v>
+                </c:pt>
+                <c:pt idx="119">
+                  <c:v>106.90909090909089</c:v>
+                </c:pt>
+                <c:pt idx="120">
+                  <c:v>133.09090909090907</c:v>
+                </c:pt>
+                <c:pt idx="121">
+                  <c:v>95.27272727272728</c:v>
+                </c:pt>
+                <c:pt idx="122">
+                  <c:v>129.45454545454544</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:bubbleSize>
+          <c:bubble3D val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-FD45-4180-B1B8-25EEFD84FE6E}"/>
+              <c16:uniqueId val="{00000001-E535-4BAB-9072-83E69108D070}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -2400,27 +3248,17 @@
             <c:v>Chinstrap</c:v>
           </c:tx>
           <c:spPr>
-            <a:ln w="25400" cap="rnd">
+            <a:solidFill>
+              <a:srgbClr val="D256C3">
+                <a:alpha val="70000"/>
+              </a:srgbClr>
+            </a:solidFill>
+            <a:ln w="25400">
               <a:noFill/>
-              <a:round/>
             </a:ln>
             <a:effectLst/>
           </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:srgbClr val="D256C3">
-                  <a:alpha val="70000"/>
-                </a:srgbClr>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:noFill/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
+          <c:invertIfNegative val="0"/>
           <c:xVal>
             <c:numRef>
               <c:f>kf_excel_penglings!$F$278:$F$345</c:f>
@@ -2847,10 +3685,223 @@
               </c:numCache>
             </c:numRef>
           </c:yVal>
-          <c:smooth val="0"/>
+          <c:bubbleSize>
+            <c:numRef>
+              <c:f>kf_excel_penglings!$J$278:$J$345</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="68"/>
+                <c:pt idx="0">
+                  <c:v>104.72727272727272</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>130.18181818181819</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>139.6363636363636</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>96.727272727272705</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>149.81818181818184</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>95.27272727272728</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>101.81818181818181</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>139.6363636363636</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>101.09090909090908</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>139.6363636363636</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>105.45454545454544</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>142.54545454545456</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>108.36363636363635</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>144.72727272727272</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>100.36363636363635</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>133.81818181818181</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>132.36363636363632</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>188.36363636363635</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>103.99999999999999</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>124.36363636363636</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>74.909090909090892</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>119.27272727272727</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>80.727272727272734</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>134.54545454545453</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>106.1818181818182</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>144.72727272727272</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>133.81818181818181</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>126.54545454545453</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>103.99999999999999</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>150.5454545454545</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>63.999999999999979</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>160.72727272727275</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>75.636363636363626</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>137.45454545454544</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>128</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>111.99999999999999</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>112.72727272727272</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>144.72727272727272</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>107.63636363636363</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>155.63636363636363</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>122.90909090909091</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>102.54545454545456</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>136.72727272727269</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>97.454545454545453</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>136.72727272727269</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>135.99999999999997</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>130.90909090909091</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>122.90909090909091</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>141.09090909090909</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>128.72727272727269</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>116.36363636363636</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>140.36363636363635</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>98.909090909090921</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>135.27272727272728</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>75.636363636363626</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>146.18181818181819</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>95.27272727272728</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>125.09090909090905</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>131.63636363636363</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>98.181818181818187</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>143.99999999999997</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>106.90909090909089</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>98.909090909090921</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>172.36363636363635</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>82.909090909090892</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>127.27272727272727</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>135.99999999999997</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>131.63636363636363</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:bubbleSize>
+          <c:bubble3D val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-FD45-4180-B1B8-25EEFD84FE6E}"/>
+              <c16:uniqueId val="{00000002-E535-4BAB-9072-83E69108D070}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -2862,11 +3913,13 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="1417120319"/>
-        <c:axId val="1417129919"/>
-      </c:scatterChart>
+        <c:bubbleScale val="20"/>
+        <c:showNegBubbles val="0"/>
+        <c:axId val="1289732016"/>
+        <c:axId val="1289732496"/>
+      </c:bubbleChart>
       <c:valAx>
-        <c:axId val="1417120319"/>
+        <c:axId val="1289732016"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="235"/>
@@ -2914,6 +3967,14 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout>
+            <c:manualLayout>
+              <c:xMode val="edge"/>
+              <c:yMode val="edge"/>
+              <c:x val="0.45596707388138086"/>
+              <c:y val="0.92386495133074675"/>
+            </c:manualLayout>
+          </c:layout>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -2980,14 +4041,15 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1417129919"/>
+        <c:crossAx val="1289732496"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="1417129919"/>
+        <c:axId val="1289732496"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:max val="6500"/>
           <c:min val="2500"/>
         </c:scaling>
         <c:delete val="0"/>
@@ -3098,7 +4160,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1417120319"/>
+        <c:crossAx val="1289732016"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -3113,6 +4175,13 @@
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
     <c:showDLblsOverMax val="0"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
   </c:chart>
   <c:spPr>
     <a:solidFill>
@@ -3120,7 +4189,10 @@
     </a:solidFill>
     <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
       <a:solidFill>
-        <a:schemeClr val="accent1"/>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
       </a:solidFill>
       <a:round/>
     </a:ln>
@@ -3185,7 +4257,7 @@
 </file>
 
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="269">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
@@ -3293,6 +4365,13 @@
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr">
+          <a:alpha val="75000"/>
+        </a:schemeClr>
+      </a:solidFill>
+    </cs:spPr>
   </cs:dataPoint>
   <cs:dataPoint3D>
     <cs:lnRef idx="0"/>
@@ -3303,6 +4382,13 @@
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr">
+          <a:alpha val="75000"/>
+        </a:schemeClr>
+      </a:solidFill>
+    </cs:spPr>
   </cs:dataPoint3D>
   <cs:dataPointLine>
     <cs:lnRef idx="0">
@@ -3316,7 +4402,9 @@
     <cs:spPr>
       <a:ln w="19050" cap="rnd">
         <a:solidFill>
-          <a:schemeClr val="phClr"/>
+          <a:schemeClr val="phClr">
+            <a:alpha val="50000"/>
+          </a:schemeClr>
         </a:solidFill>
         <a:round/>
       </a:ln>
@@ -3334,6 +4422,9 @@
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
       <a:ln w="9525">
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -3704,23 +4795,23 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>596155</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>80683</xdr:rowOff>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>14502</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>180580</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>291355</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>134471</xdr:rowOff>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>332598</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>127077</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="Chart 1">
+        <xdr:cNvPr id="3" name="Chart 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4A7B159F-0D22-5F7B-6963-D23892F40921}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EFD2D857-4DBD-3CA1-2D49-C84D09FFC20B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3742,8 +4833,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{F169F528-9736-4938-AD6F-EB3DD5C9CDE1}" name="Table1" displayName="Table1" ref="A1:I345" totalsRowShown="0">
-  <autoFilter ref="A1:I345" xr:uid="{F169F528-9736-4938-AD6F-EB3DD5C9CDE1}">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{F169F528-9736-4938-AD6F-EB3DD5C9CDE1}" name="Table1" displayName="Table1" ref="A1:J345" totalsRowShown="0">
+  <autoFilter ref="A1:J345" xr:uid="{F169F528-9736-4938-AD6F-EB3DD5C9CDE1}">
     <filterColumn colId="5">
       <filters>
         <filter val="172"/>
@@ -3804,7 +4895,7 @@
       </filters>
     </filterColumn>
   </autoFilter>
-  <tableColumns count="9">
+  <tableColumns count="10">
     <tableColumn id="1" xr3:uid="{E21D641E-C535-4BCE-AC43-36CAB9854109}" name="Pengling"/>
     <tableColumn id="2" xr3:uid="{5C5FA059-0D32-48E3-8183-B0C88235E164}" name="species"/>
     <tableColumn id="3" xr3:uid="{49A8AC55-7C06-4FA9-BDED-B3B37A255BEB}" name="island"/>
@@ -3814,6 +4905,9 @@
     <tableColumn id="7" xr3:uid="{06F0F210-CE60-4F92-9A72-0824BE1FFA5E}" name="body_mass_g"/>
     <tableColumn id="8" xr3:uid="{E819CF51-2060-44DB-9FE7-AD8CDA391E64}" name="sex"/>
     <tableColumn id="9" xr3:uid="{9B7D939D-A391-4F8A-9004-AFFDA3A6EBCC}" name="year"/>
+    <tableColumn id="10" xr3:uid="{7FB89F67-D4FC-4CC8-93F9-BC2BDBD9FEF0}" name="bill_length_mm_normalized" dataDxfId="0">
+      <calculatedColumnFormula>((Table1[[#This Row],[bill_length_mm]]-$L$2)/($L$4))*200</calculatedColumnFormula>
+    </tableColumn>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -4136,10 +5230,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CA2D589A-6F7E-4317-8AE2-C5DD35030204}">
-  <dimension ref="A1:I345"/>
+  <dimension ref="A1:N345"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="94" workbookViewId="0">
-      <selection activeCell="K21" sqref="K21"/>
+    <sheetView tabSelected="1" topLeftCell="J1" zoomScale="98" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="N23" sqref="N23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4150,9 +5244,10 @@
     <col min="5" max="5" width="15.44140625" customWidth="1"/>
     <col min="6" max="6" width="18.44140625" customWidth="1"/>
     <col min="7" max="7" width="13.88671875" customWidth="1"/>
+    <col min="10" max="10" width="29.77734375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>17</v>
       </c>
@@ -4180,8 +5275,11 @@
       <c r="I1" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1</v>
       </c>
@@ -4209,8 +5307,16 @@
       <c r="I2">
         <v>2007</v>
       </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J2">
+        <f>((Table1[[#This Row],[bill_length_mm]]-$L$2)/($L$4))*200</f>
+        <v>50.909090909090907</v>
+      </c>
+      <c r="L2">
+        <f>MIN(D:D)</f>
+        <v>32.1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>2</v>
       </c>
@@ -4238,8 +5344,16 @@
       <c r="I3">
         <v>2007</v>
       </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J3">
+        <f>((Table1[[#This Row],[bill_length_mm]]-$L$2)/($L$4))*200</f>
+        <v>53.818181818181813</v>
+      </c>
+      <c r="L3">
+        <f>MAX(D:D)</f>
+        <v>59.6</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>3</v>
       </c>
@@ -4267,8 +5381,16 @@
       <c r="I4">
         <v>2007</v>
       </c>
-    </row>
-    <row r="5" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+      <c r="J4">
+        <f>((Table1[[#This Row],[bill_length_mm]]-$L$2)/($L$4))*200</f>
+        <v>59.636363636363612</v>
+      </c>
+      <c r="L4">
+        <f>L3-L2</f>
+        <v>27.5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>4</v>
       </c>
@@ -4296,8 +5418,12 @@
       <c r="I5">
         <v>2007</v>
       </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J5" t="e">
+        <f>((Table1[[#This Row],[bill_length_mm]]-$L$2)/($L$4))*200</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>5</v>
       </c>
@@ -4325,8 +5451,12 @@
       <c r="I6">
         <v>2007</v>
       </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J6">
+        <f>((Table1[[#This Row],[bill_length_mm]]-$L$2)/($L$4))*200</f>
+        <v>33.454545454545467</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>6</v>
       </c>
@@ -4354,8 +5484,12 @@
       <c r="I7">
         <v>2007</v>
       </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J7">
+        <f>((Table1[[#This Row],[bill_length_mm]]-$L$2)/($L$4))*200</f>
+        <v>52.363636363636331</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>7</v>
       </c>
@@ -4383,8 +5517,12 @@
       <c r="I8">
         <v>2007</v>
       </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J8">
+        <f>((Table1[[#This Row],[bill_length_mm]]-$L$2)/($L$4))*200</f>
+        <v>49.454545454545432</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>8</v>
       </c>
@@ -4412,8 +5550,12 @@
       <c r="I9">
         <v>2007</v>
       </c>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J9">
+        <f>((Table1[[#This Row],[bill_length_mm]]-$L$2)/($L$4))*200</f>
+        <v>51.636363636363647</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>9</v>
       </c>
@@ -4441,8 +5583,12 @@
       <c r="I10">
         <v>2007</v>
       </c>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J10">
+        <f>((Table1[[#This Row],[bill_length_mm]]-$L$2)/($L$4))*200</f>
+        <v>14.545454545454545</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>10</v>
       </c>
@@ -4470,8 +5616,12 @@
       <c r="I11">
         <v>2007</v>
       </c>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J11">
+        <f>((Table1[[#This Row],[bill_length_mm]]-$L$2)/($L$4))*200</f>
+        <v>71.999999999999986</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>11</v>
       </c>
@@ -4499,8 +5649,12 @@
       <c r="I12">
         <v>2007</v>
       </c>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J12">
+        <f>((Table1[[#This Row],[bill_length_mm]]-$L$2)/($L$4))*200</f>
+        <v>41.454545454545425</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>12</v>
       </c>
@@ -4528,8 +5682,12 @@
       <c r="I13">
         <v>2007</v>
       </c>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J13">
+        <f>((Table1[[#This Row],[bill_length_mm]]-$L$2)/($L$4))*200</f>
+        <v>41.454545454545425</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>13</v>
       </c>
@@ -4557,8 +5715,12 @@
       <c r="I14">
         <v>2007</v>
       </c>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J14">
+        <f>((Table1[[#This Row],[bill_length_mm]]-$L$2)/($L$4))*200</f>
+        <v>65.454545454545453</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>14</v>
       </c>
@@ -4586,8 +5748,12 @@
       <c r="I15">
         <v>2007</v>
       </c>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J15">
+        <f>((Table1[[#This Row],[bill_length_mm]]-$L$2)/($L$4))*200</f>
+        <v>47.272727272727273</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>15</v>
       </c>
@@ -4615,8 +5781,12 @@
       <c r="I16">
         <v>2007</v>
       </c>
-    </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J16">
+        <f>((Table1[[#This Row],[bill_length_mm]]-$L$2)/($L$4))*200</f>
+        <v>18.181818181818183</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>16</v>
       </c>
@@ -4644,8 +5814,12 @@
       <c r="I17">
         <v>2007</v>
       </c>
-    </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J17">
+        <f>((Table1[[#This Row],[bill_length_mm]]-$L$2)/($L$4))*200</f>
+        <v>32.727272727272727</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>17</v>
       </c>
@@ -4673,8 +5847,12 @@
       <c r="I18">
         <v>2007</v>
       </c>
-    </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J18">
+        <f>((Table1[[#This Row],[bill_length_mm]]-$L$2)/($L$4))*200</f>
+        <v>48.000000000000007</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>18</v>
       </c>
@@ -4702,8 +5880,15 @@
       <c r="I19">
         <v>2007</v>
       </c>
-    </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J19">
+        <f>((Table1[[#This Row],[bill_length_mm]]-$L$2)/($L$4))*200</f>
+        <v>75.636363636363626</v>
+      </c>
+      <c r="N19" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>19</v>
       </c>
@@ -4731,8 +5916,15 @@
       <c r="I20">
         <v>2007</v>
       </c>
-    </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J20">
+        <f>((Table1[[#This Row],[bill_length_mm]]-$L$2)/($L$4))*200</f>
+        <v>16.727272727272709</v>
+      </c>
+      <c r="N20" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="21" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>20</v>
       </c>
@@ -4760,8 +5952,15 @@
       <c r="I21">
         <v>2007</v>
       </c>
-    </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J21">
+        <f>((Table1[[#This Row],[bill_length_mm]]-$L$2)/($L$4))*200</f>
+        <v>101.09090909090908</v>
+      </c>
+      <c r="N21" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="22" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A22">
         <v>21</v>
       </c>
@@ -4789,8 +5988,12 @@
       <c r="I22">
         <v>2007</v>
       </c>
-    </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J22">
+        <f>((Table1[[#This Row],[bill_length_mm]]-$L$2)/($L$4))*200</f>
+        <v>41.454545454545425</v>
+      </c>
+    </row>
+    <row r="23" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A23">
         <v>22</v>
       </c>
@@ -4818,8 +6021,12 @@
       <c r="I23">
         <v>2007</v>
       </c>
-    </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J23">
+        <f>((Table1[[#This Row],[bill_length_mm]]-$L$2)/($L$4))*200</f>
+        <v>40.727272727272741</v>
+      </c>
+    </row>
+    <row r="24" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A24">
         <v>23</v>
       </c>
@@ -4847,8 +6054,12 @@
       <c r="I24">
         <v>2007</v>
       </c>
-    </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J24">
+        <f>((Table1[[#This Row],[bill_length_mm]]-$L$2)/($L$4))*200</f>
+        <v>27.636363636363615</v>
+      </c>
+    </row>
+    <row r="25" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A25">
         <v>24</v>
       </c>
@@ -4876,8 +6087,12 @@
       <c r="I25">
         <v>2007</v>
       </c>
-    </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J25">
+        <f>((Table1[[#This Row],[bill_length_mm]]-$L$2)/($L$4))*200</f>
+        <v>44.363636363636374</v>
+      </c>
+    </row>
+    <row r="26" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A26">
         <v>25</v>
       </c>
@@ -4905,8 +6120,12 @@
       <c r="I26">
         <v>2007</v>
       </c>
-    </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J26">
+        <f>((Table1[[#This Row],[bill_length_mm]]-$L$2)/($L$4))*200</f>
+        <v>48.727272727272698</v>
+      </c>
+    </row>
+    <row r="27" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A27">
         <v>26</v>
       </c>
@@ -4934,8 +6153,12 @@
       <c r="I27">
         <v>2007</v>
       </c>
-    </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J27">
+        <f>((Table1[[#This Row],[bill_length_mm]]-$L$2)/($L$4))*200</f>
+        <v>23.272727272727241</v>
+      </c>
+    </row>
+    <row r="28" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A28">
         <v>27</v>
       </c>
@@ -4963,8 +6186,12 @@
       <c r="I28">
         <v>2007</v>
       </c>
-    </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J28">
+        <f>((Table1[[#This Row],[bill_length_mm]]-$L$2)/($L$4))*200</f>
+        <v>61.818181818181813</v>
+      </c>
+    </row>
+    <row r="29" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A29">
         <v>28</v>
       </c>
@@ -4992,8 +6219,12 @@
       <c r="I29">
         <v>2007</v>
       </c>
-    </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J29">
+        <f>((Table1[[#This Row],[bill_length_mm]]-$L$2)/($L$4))*200</f>
+        <v>61.090909090909086</v>
+      </c>
+    </row>
+    <row r="30" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A30">
         <v>29</v>
       </c>
@@ -5021,8 +6252,12 @@
       <c r="I30">
         <v>2007</v>
       </c>
-    </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J30">
+        <f>((Table1[[#This Row],[bill_length_mm]]-$L$2)/($L$4))*200</f>
+        <v>42.181818181818159</v>
+      </c>
+    </row>
+    <row r="31" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A31">
         <v>30</v>
       </c>
@@ -5050,8 +6285,12 @@
       <c r="I31">
         <v>2007</v>
       </c>
-    </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J31">
+        <f>((Table1[[#This Row],[bill_length_mm]]-$L$2)/($L$4))*200</f>
+        <v>61.090909090909086</v>
+      </c>
+    </row>
+    <row r="32" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A32">
         <v>31</v>
       </c>
@@ -5079,8 +6318,12 @@
       <c r="I32">
         <v>2007</v>
       </c>
-    </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J32">
+        <f>((Table1[[#This Row],[bill_length_mm]]-$L$2)/($L$4))*200</f>
+        <v>53.818181818181813</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A33">
         <v>32</v>
       </c>
@@ -5108,8 +6351,12 @@
       <c r="I33">
         <v>2007</v>
       </c>
-    </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J33">
+        <f>((Table1[[#This Row],[bill_length_mm]]-$L$2)/($L$4))*200</f>
+        <v>37.090909090909101</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A34">
         <v>33</v>
       </c>
@@ -5137,8 +6384,12 @@
       <c r="I34">
         <v>2007</v>
       </c>
-    </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J34">
+        <f>((Table1[[#This Row],[bill_length_mm]]-$L$2)/($L$4))*200</f>
+        <v>53.818181818181813</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A35">
         <v>34</v>
       </c>
@@ -5166,8 +6417,12 @@
       <c r="I35">
         <v>2007</v>
       </c>
-    </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J35">
+        <f>((Table1[[#This Row],[bill_length_mm]]-$L$2)/($L$4))*200</f>
+        <v>63.999999999999979</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A36">
         <v>35</v>
       </c>
@@ -5195,8 +6450,12 @@
       <c r="I36">
         <v>2007</v>
       </c>
-    </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J36">
+        <f>((Table1[[#This Row],[bill_length_mm]]-$L$2)/($L$4))*200</f>
+        <v>31.272727272727252</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A37">
         <v>36</v>
       </c>
@@ -5224,8 +6483,12 @@
       <c r="I37">
         <v>2007</v>
       </c>
-    </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J37">
+        <f>((Table1[[#This Row],[bill_length_mm]]-$L$2)/($L$4))*200</f>
+        <v>51.636363636363647</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A38">
         <v>37</v>
       </c>
@@ -5253,8 +6516,12 @@
       <c r="I38">
         <v>2007</v>
       </c>
-    </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J38">
+        <f>((Table1[[#This Row],[bill_length_mm]]-$L$2)/($L$4))*200</f>
+        <v>48.727272727272698</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A39">
         <v>38</v>
       </c>
@@ -5282,8 +6549,12 @@
       <c r="I39">
         <v>2007</v>
       </c>
-    </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J39">
+        <f>((Table1[[#This Row],[bill_length_mm]]-$L$2)/($L$4))*200</f>
+        <v>73.454545454545467</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A40">
         <v>39</v>
       </c>
@@ -5311,8 +6582,12 @@
       <c r="I40">
         <v>2007</v>
       </c>
-    </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J40">
+        <f>((Table1[[#This Row],[bill_length_mm]]-$L$2)/($L$4))*200</f>
+        <v>40</v>
+      </c>
+    </row>
+    <row r="41" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A41">
         <v>40</v>
       </c>
@@ -5340,8 +6615,12 @@
       <c r="I41">
         <v>2007</v>
       </c>
-    </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J41">
+        <f>((Table1[[#This Row],[bill_length_mm]]-$L$2)/($L$4))*200</f>
+        <v>55.999999999999972</v>
+      </c>
+    </row>
+    <row r="42" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A42">
         <v>41</v>
       </c>
@@ -5369,8 +6648,12 @@
       <c r="I42">
         <v>2007</v>
       </c>
-    </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J42">
+        <f>((Table1[[#This Row],[bill_length_mm]]-$L$2)/($L$4))*200</f>
+        <v>31.999999999999989</v>
+      </c>
+    </row>
+    <row r="43" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A43">
         <v>42</v>
       </c>
@@ -5398,8 +6681,12 @@
       <c r="I43">
         <v>2007</v>
       </c>
-    </row>
-    <row r="44" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J43">
+        <f>((Table1[[#This Row],[bill_length_mm]]-$L$2)/($L$4))*200</f>
+        <v>63.272727272727245</v>
+      </c>
+    </row>
+    <row r="44" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A44">
         <v>43</v>
       </c>
@@ -5427,8 +6714,12 @@
       <c r="I44">
         <v>2007</v>
       </c>
-    </row>
-    <row r="45" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J44">
+        <f>((Table1[[#This Row],[bill_length_mm]]-$L$2)/($L$4))*200</f>
+        <v>28.363636363636353</v>
+      </c>
+    </row>
+    <row r="45" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A45">
         <v>44</v>
       </c>
@@ -5456,8 +6747,12 @@
       <c r="I45">
         <v>2007</v>
       </c>
-    </row>
-    <row r="46" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J45">
+        <f>((Table1[[#This Row],[bill_length_mm]]-$L$2)/($L$4))*200</f>
+        <v>87.272727272727266</v>
+      </c>
+    </row>
+    <row r="46" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A46">
         <v>45</v>
       </c>
@@ -5485,8 +6780,12 @@
       <c r="I46">
         <v>2007</v>
       </c>
-    </row>
-    <row r="47" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J46">
+        <f>((Table1[[#This Row],[bill_length_mm]]-$L$2)/($L$4))*200</f>
+        <v>35.636363636363626</v>
+      </c>
+    </row>
+    <row r="47" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A47">
         <v>46</v>
       </c>
@@ -5514,8 +6813,12 @@
       <c r="I47">
         <v>2007</v>
       </c>
-    </row>
-    <row r="48" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J47">
+        <f>((Table1[[#This Row],[bill_length_mm]]-$L$2)/($L$4))*200</f>
+        <v>54.54545454545454</v>
+      </c>
+    </row>
+    <row r="48" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A48">
         <v>47</v>
       </c>
@@ -5543,8 +6846,12 @@
       <c r="I48">
         <v>2007</v>
       </c>
-    </row>
-    <row r="49" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J48">
+        <f>((Table1[[#This Row],[bill_length_mm]]-$L$2)/($L$4))*200</f>
+        <v>65.454545454545453</v>
+      </c>
+    </row>
+    <row r="49" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A49">
         <v>48</v>
       </c>
@@ -5572,8 +6879,12 @@
       <c r="I49">
         <v>2007</v>
       </c>
-    </row>
-    <row r="50" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J49">
+        <f>((Table1[[#This Row],[bill_length_mm]]-$L$2)/($L$4))*200</f>
+        <v>39.272727272727266</v>
+      </c>
+    </row>
+    <row r="50" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A50">
         <v>49</v>
       </c>
@@ -5601,8 +6912,12 @@
       <c r="I50">
         <v>2007</v>
       </c>
-    </row>
-    <row r="51" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J50">
+        <f>((Table1[[#This Row],[bill_length_mm]]-$L$2)/($L$4))*200</f>
+        <v>28.363636363636353</v>
+      </c>
+    </row>
+    <row r="51" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A51">
         <v>50</v>
       </c>
@@ -5630,8 +6945,12 @@
       <c r="I51">
         <v>2007</v>
       </c>
-    </row>
-    <row r="52" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J51">
+        <f>((Table1[[#This Row],[bill_length_mm]]-$L$2)/($L$4))*200</f>
+        <v>74.181818181818144</v>
+      </c>
+    </row>
+    <row r="52" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A52">
         <v>51</v>
       </c>
@@ -5659,8 +6978,12 @@
       <c r="I52">
         <v>2008</v>
       </c>
-    </row>
-    <row r="53" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J52">
+        <f>((Table1[[#This Row],[bill_length_mm]]-$L$2)/($L$4))*200</f>
+        <v>54.54545454545454</v>
+      </c>
+    </row>
+    <row r="53" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A53">
         <v>52</v>
       </c>
@@ -5688,8 +7011,12 @@
       <c r="I53">
         <v>2008</v>
       </c>
-    </row>
-    <row r="54" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J53">
+        <f>((Table1[[#This Row],[bill_length_mm]]-$L$2)/($L$4))*200</f>
+        <v>58.18181818181818</v>
+      </c>
+    </row>
+    <row r="54" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A54">
         <v>53</v>
       </c>
@@ -5717,8 +7044,12 @@
       <c r="I54">
         <v>2008</v>
       </c>
-    </row>
-    <row r="55" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J54">
+        <f>((Table1[[#This Row],[bill_length_mm]]-$L$2)/($L$4))*200</f>
+        <v>21.090909090909079</v>
+      </c>
+    </row>
+    <row r="55" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A55">
         <v>54</v>
       </c>
@@ -5746,8 +7077,12 @@
       <c r="I55">
         <v>2008</v>
       </c>
-    </row>
-    <row r="56" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J55">
+        <f>((Table1[[#This Row],[bill_length_mm]]-$L$2)/($L$4))*200</f>
+        <v>71.999999999999986</v>
+      </c>
+    </row>
+    <row r="56" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A56">
         <v>55</v>
       </c>
@@ -5775,8 +7110,12 @@
       <c r="I56">
         <v>2008</v>
       </c>
-    </row>
-    <row r="57" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J56">
+        <f>((Table1[[#This Row],[bill_length_mm]]-$L$2)/($L$4))*200</f>
+        <v>17.454545454545446</v>
+      </c>
+    </row>
+    <row r="57" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A57">
         <v>56</v>
       </c>
@@ -5804,8 +7143,12 @@
       <c r="I57">
         <v>2008</v>
       </c>
-    </row>
-    <row r="58" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J57">
+        <f>((Table1[[#This Row],[bill_length_mm]]-$L$2)/($L$4))*200</f>
+        <v>67.636363636363612</v>
+      </c>
+    </row>
+    <row r="58" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A58">
         <v>57</v>
       </c>
@@ -5833,8 +7176,12 @@
       <c r="I58">
         <v>2008</v>
       </c>
-    </row>
-    <row r="59" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J58">
+        <f>((Table1[[#This Row],[bill_length_mm]]-$L$2)/($L$4))*200</f>
+        <v>50.181818181818173</v>
+      </c>
+    </row>
+    <row r="59" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A59">
         <v>58</v>
       </c>
@@ -5862,8 +7209,12 @@
       <c r="I59">
         <v>2008</v>
       </c>
-    </row>
-    <row r="60" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J59">
+        <f>((Table1[[#This Row],[bill_length_mm]]-$L$2)/($L$4))*200</f>
+        <v>61.818181818181813</v>
+      </c>
+    </row>
+    <row r="60" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A60">
         <v>59</v>
       </c>
@@ -5891,8 +7242,12 @@
       <c r="I60">
         <v>2008</v>
       </c>
-    </row>
-    <row r="61" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J60">
+        <f>((Table1[[#This Row],[bill_length_mm]]-$L$2)/($L$4))*200</f>
+        <v>31.999999999999989</v>
+      </c>
+    </row>
+    <row r="61" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A61">
         <v>60</v>
       </c>
@@ -5920,8 +7275,12 @@
       <c r="I61">
         <v>2008</v>
       </c>
-    </row>
-    <row r="62" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J61">
+        <f>((Table1[[#This Row],[bill_length_mm]]-$L$2)/($L$4))*200</f>
+        <v>40</v>
+      </c>
+    </row>
+    <row r="62" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A62">
         <v>61</v>
       </c>
@@ -5949,8 +7308,12 @@
       <c r="I62">
         <v>2008</v>
       </c>
-    </row>
-    <row r="63" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J62">
+        <f>((Table1[[#This Row],[bill_length_mm]]-$L$2)/($L$4))*200</f>
+        <v>26.181818181818191</v>
+      </c>
+    </row>
+    <row r="63" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A63">
         <v>62</v>
       </c>
@@ -5978,8 +7341,12 @@
       <c r="I63">
         <v>2008</v>
       </c>
-    </row>
-    <row r="64" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J63">
+        <f>((Table1[[#This Row],[bill_length_mm]]-$L$2)/($L$4))*200</f>
+        <v>66.909090909090878</v>
+      </c>
+    </row>
+    <row r="64" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A64">
         <v>63</v>
       </c>
@@ -6007,8 +7374,12 @@
       <c r="I64">
         <v>2008</v>
       </c>
-    </row>
-    <row r="65" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J64">
+        <f>((Table1[[#This Row],[bill_length_mm]]-$L$2)/($L$4))*200</f>
+        <v>40</v>
+      </c>
+    </row>
+    <row r="65" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A65">
         <v>64</v>
       </c>
@@ -6036,8 +7407,12 @@
       <c r="I65">
         <v>2008</v>
       </c>
-    </row>
-    <row r="66" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J65">
+        <f>((Table1[[#This Row],[bill_length_mm]]-$L$2)/($L$4))*200</f>
+        <v>65.454545454545453</v>
+      </c>
+    </row>
+    <row r="66" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A66">
         <v>65</v>
       </c>
@@ -6065,8 +7440,12 @@
       <c r="I66">
         <v>2008</v>
       </c>
-    </row>
-    <row r="67" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J66">
+        <f>((Table1[[#This Row],[bill_length_mm]]-$L$2)/($L$4))*200</f>
+        <v>31.272727272727252</v>
+      </c>
+    </row>
+    <row r="67" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A67">
         <v>66</v>
       </c>
@@ -6094,8 +7473,12 @@
       <c r="I67">
         <v>2008</v>
       </c>
-    </row>
-    <row r="68" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J67">
+        <f>((Table1[[#This Row],[bill_length_mm]]-$L$2)/($L$4))*200</f>
+        <v>69.090909090909093</v>
+      </c>
+    </row>
+    <row r="68" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A68">
         <v>67</v>
       </c>
@@ -6123,8 +7506,12 @@
       <c r="I68">
         <v>2008</v>
       </c>
-    </row>
-    <row r="69" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J68">
+        <f>((Table1[[#This Row],[bill_length_mm]]-$L$2)/($L$4))*200</f>
+        <v>24.727272727272716</v>
+      </c>
+    </row>
+    <row r="69" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A69">
         <v>68</v>
       </c>
@@ -6152,8 +7539,12 @@
       <c r="I69">
         <v>2008</v>
       </c>
-    </row>
-    <row r="70" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J69">
+        <f>((Table1[[#This Row],[bill_length_mm]]-$L$2)/($L$4))*200</f>
+        <v>65.454545454545453</v>
+      </c>
+    </row>
+    <row r="70" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A70">
         <v>69</v>
       </c>
@@ -6181,8 +7572,12 @@
       <c r="I70">
         <v>2008</v>
       </c>
-    </row>
-    <row r="71" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J70">
+        <f>((Table1[[#This Row],[bill_length_mm]]-$L$2)/($L$4))*200</f>
+        <v>27.636363636363615</v>
+      </c>
+    </row>
+    <row r="71" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A71">
         <v>70</v>
       </c>
@@ -6210,8 +7605,12 @@
       <c r="I71">
         <v>2008</v>
       </c>
-    </row>
-    <row r="72" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J71">
+        <f>((Table1[[#This Row],[bill_length_mm]]-$L$2)/($L$4))*200</f>
+        <v>70.545454545454504</v>
+      </c>
+    </row>
+    <row r="72" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A72">
         <v>71</v>
       </c>
@@ -6239,8 +7638,12 @@
       <c r="I72">
         <v>2008</v>
       </c>
-    </row>
-    <row r="73" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J72">
+        <f>((Table1[[#This Row],[bill_length_mm]]-$L$2)/($L$4))*200</f>
+        <v>10.181818181818171</v>
+      </c>
+    </row>
+    <row r="73" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A73">
         <v>72</v>
       </c>
@@ -6268,8 +7671,12 @@
       <c r="I73">
         <v>2008</v>
       </c>
-    </row>
-    <row r="74" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J73">
+        <f>((Table1[[#This Row],[bill_length_mm]]-$L$2)/($L$4))*200</f>
+        <v>55.272727272727288</v>
+      </c>
+    </row>
+    <row r="74" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A74">
         <v>73</v>
       </c>
@@ -6297,8 +7704,12 @@
       <c r="I74">
         <v>2008</v>
       </c>
-    </row>
-    <row r="75" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J74">
+        <f>((Table1[[#This Row],[bill_length_mm]]-$L$2)/($L$4))*200</f>
+        <v>54.54545454545454</v>
+      </c>
+    </row>
+    <row r="75" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A75">
         <v>74</v>
       </c>
@@ -6326,8 +7737,12 @@
       <c r="I75">
         <v>2008</v>
       </c>
-    </row>
-    <row r="76" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J75">
+        <f>((Table1[[#This Row],[bill_length_mm]]-$L$2)/($L$4))*200</f>
+        <v>99.636363636363598</v>
+      </c>
+    </row>
+    <row r="76" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A76">
         <v>75</v>
       </c>
@@ -6355,8 +7770,12 @@
       <c r="I76">
         <v>2008</v>
       </c>
-    </row>
-    <row r="77" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J76">
+        <f>((Table1[[#This Row],[bill_length_mm]]-$L$2)/($L$4))*200</f>
+        <v>24.727272727272716</v>
+      </c>
+    </row>
+    <row r="77" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A77">
         <v>76</v>
       </c>
@@ -6384,8 +7803,12 @@
       <c r="I77">
         <v>2008</v>
       </c>
-    </row>
-    <row r="78" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J77">
+        <f>((Table1[[#This Row],[bill_length_mm]]-$L$2)/($L$4))*200</f>
+        <v>77.818181818181785</v>
+      </c>
+    </row>
+    <row r="78" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A78">
         <v>77</v>
       </c>
@@ -6413,8 +7836,12 @@
       <c r="I78">
         <v>2008</v>
       </c>
-    </row>
-    <row r="79" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J78">
+        <f>((Table1[[#This Row],[bill_length_mm]]-$L$2)/($L$4))*200</f>
+        <v>63.999999999999979</v>
+      </c>
+    </row>
+    <row r="79" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A79">
         <v>78</v>
       </c>
@@ -6442,8 +7869,12 @@
       <c r="I79">
         <v>2008</v>
       </c>
-    </row>
-    <row r="80" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J79">
+        <f>((Table1[[#This Row],[bill_length_mm]]-$L$2)/($L$4))*200</f>
+        <v>37.090909090909101</v>
+      </c>
+    </row>
+    <row r="80" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A80">
         <v>79</v>
       </c>
@@ -6471,8 +7902,12 @@
       <c r="I80">
         <v>2008</v>
       </c>
-    </row>
-    <row r="81" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J80">
+        <f>((Table1[[#This Row],[bill_length_mm]]-$L$2)/($L$4))*200</f>
+        <v>29.818181818181827</v>
+      </c>
+    </row>
+    <row r="81" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A81">
         <v>80</v>
       </c>
@@ -6500,8 +7935,12 @@
       <c r="I81">
         <v>2008</v>
       </c>
-    </row>
-    <row r="82" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J81">
+        <f>((Table1[[#This Row],[bill_length_mm]]-$L$2)/($L$4))*200</f>
+        <v>72.727272727272734</v>
+      </c>
+    </row>
+    <row r="82" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A82">
         <v>81</v>
       </c>
@@ -6529,8 +7968,12 @@
       <c r="I82">
         <v>2008</v>
       </c>
-    </row>
-    <row r="83" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J82">
+        <f>((Table1[[#This Row],[bill_length_mm]]-$L$2)/($L$4))*200</f>
+        <v>18.181818181818183</v>
+      </c>
+    </row>
+    <row r="83" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A83">
         <v>82</v>
       </c>
@@ -6558,8 +8001,12 @@
       <c r="I83">
         <v>2008</v>
       </c>
-    </row>
-    <row r="84" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J83">
+        <f>((Table1[[#This Row],[bill_length_mm]]-$L$2)/($L$4))*200</f>
+        <v>78.545454545454533</v>
+      </c>
+    </row>
+    <row r="84" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A84">
         <v>83</v>
       </c>
@@ -6587,8 +8034,12 @@
       <c r="I84">
         <v>2008</v>
       </c>
-    </row>
-    <row r="85" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J84">
+        <f>((Table1[[#This Row],[bill_length_mm]]-$L$2)/($L$4))*200</f>
+        <v>33.454545454545467</v>
+      </c>
+    </row>
+    <row r="85" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A85">
         <v>84</v>
       </c>
@@ -6616,8 +8067,12 @@
       <c r="I85">
         <v>2008</v>
       </c>
-    </row>
-    <row r="86" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J85">
+        <f>((Table1[[#This Row],[bill_length_mm]]-$L$2)/($L$4))*200</f>
+        <v>21.818181818181817</v>
+      </c>
+    </row>
+    <row r="86" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A86">
         <v>85</v>
       </c>
@@ -6645,8 +8100,12 @@
       <c r="I86">
         <v>2008</v>
       </c>
-    </row>
-    <row r="87" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J86">
+        <f>((Table1[[#This Row],[bill_length_mm]]-$L$2)/($L$4))*200</f>
+        <v>37.818181818181792</v>
+      </c>
+    </row>
+    <row r="87" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A87">
         <v>86</v>
       </c>
@@ -6674,8 +8133,12 @@
       <c r="I87">
         <v>2008</v>
       </c>
-    </row>
-    <row r="88" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J87">
+        <f>((Table1[[#This Row],[bill_length_mm]]-$L$2)/($L$4))*200</f>
+        <v>66.909090909090878</v>
+      </c>
+    </row>
+    <row r="88" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A88">
         <v>87</v>
       </c>
@@ -6703,8 +8166,12 @@
       <c r="I88">
         <v>2008</v>
       </c>
-    </row>
-    <row r="89" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J88">
+        <f>((Table1[[#This Row],[bill_length_mm]]-$L$2)/($L$4))*200</f>
+        <v>30.545454545454515</v>
+      </c>
+    </row>
+    <row r="89" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A89">
         <v>88</v>
       </c>
@@ -6732,8 +8199,12 @@
       <c r="I89">
         <v>2008</v>
       </c>
-    </row>
-    <row r="90" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J89">
+        <f>((Table1[[#This Row],[bill_length_mm]]-$L$2)/($L$4))*200</f>
+        <v>34.909090909090892</v>
+      </c>
+    </row>
+    <row r="90" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A90">
         <v>89</v>
       </c>
@@ -6761,8 +8232,12 @@
       <c r="I90">
         <v>2008</v>
       </c>
-    </row>
-    <row r="91" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J90">
+        <f>((Table1[[#This Row],[bill_length_mm]]-$L$2)/($L$4))*200</f>
+        <v>45.090909090909058</v>
+      </c>
+    </row>
+    <row r="91" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A91">
         <v>90</v>
       </c>
@@ -6790,8 +8265,12 @@
       <c r="I91">
         <v>2008</v>
       </c>
-    </row>
-    <row r="92" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J91">
+        <f>((Table1[[#This Row],[bill_length_mm]]-$L$2)/($L$4))*200</f>
+        <v>49.454545454545432</v>
+      </c>
+    </row>
+    <row r="92" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A92">
         <v>91</v>
       </c>
@@ -6819,8 +8298,12 @@
       <c r="I92">
         <v>2008</v>
       </c>
-    </row>
-    <row r="93" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J92">
+        <f>((Table1[[#This Row],[bill_length_mm]]-$L$2)/($L$4))*200</f>
+        <v>26.181818181818191</v>
+      </c>
+    </row>
+    <row r="93" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A93">
         <v>92</v>
       </c>
@@ -6848,8 +8331,12 @@
       <c r="I93">
         <v>2008</v>
       </c>
-    </row>
-    <row r="94" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J93">
+        <f>((Table1[[#This Row],[bill_length_mm]]-$L$2)/($L$4))*200</f>
+        <v>65.454545454545453</v>
+      </c>
+    </row>
+    <row r="94" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A94">
         <v>93</v>
       </c>
@@ -6877,8 +8364,12 @@
       <c r="I94">
         <v>2008</v>
       </c>
-    </row>
-    <row r="95" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J94">
+        <f>((Table1[[#This Row],[bill_length_mm]]-$L$2)/($L$4))*200</f>
+        <v>13.818181818181808</v>
+      </c>
+    </row>
+    <row r="95" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A95">
         <v>94</v>
       </c>
@@ -6906,8 +8397,12 @@
       <c r="I95">
         <v>2008</v>
       </c>
-    </row>
-    <row r="96" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J95">
+        <f>((Table1[[#This Row],[bill_length_mm]]-$L$2)/($L$4))*200</f>
+        <v>54.54545454545454</v>
+      </c>
+    </row>
+    <row r="96" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A96">
         <v>95</v>
       </c>
@@ -6935,8 +8430,12 @@
       <c r="I96">
         <v>2008</v>
       </c>
-    </row>
-    <row r="97" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J96">
+        <f>((Table1[[#This Row],[bill_length_mm]]-$L$2)/($L$4))*200</f>
+        <v>29.818181818181827</v>
+      </c>
+    </row>
+    <row r="97" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A97">
         <v>96</v>
       </c>
@@ -6964,8 +8463,12 @@
       <c r="I97">
         <v>2008</v>
       </c>
-    </row>
-    <row r="98" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J97">
+        <f>((Table1[[#This Row],[bill_length_mm]]-$L$2)/($L$4))*200</f>
+        <v>63.272727272727245</v>
+      </c>
+    </row>
+    <row r="98" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A98">
         <v>97</v>
       </c>
@@ -6993,8 +8496,12 @@
       <c r="I98">
         <v>2008</v>
       </c>
-    </row>
-    <row r="99" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J98">
+        <f>((Table1[[#This Row],[bill_length_mm]]-$L$2)/($L$4))*200</f>
+        <v>43.636363636363633</v>
+      </c>
+    </row>
+    <row r="99" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A99">
         <v>98</v>
       </c>
@@ -7022,8 +8529,12 @@
       <c r="I99">
         <v>2008</v>
       </c>
-    </row>
-    <row r="100" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J99">
+        <f>((Table1[[#This Row],[bill_length_mm]]-$L$2)/($L$4))*200</f>
+        <v>59.636363636363612</v>
+      </c>
+    </row>
+    <row r="100" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A100">
         <v>99</v>
       </c>
@@ -7051,8 +8562,12 @@
       <c r="I100">
         <v>2008</v>
       </c>
-    </row>
-    <row r="101" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J100">
+        <f>((Table1[[#This Row],[bill_length_mm]]-$L$2)/($L$4))*200</f>
+        <v>7.2727272727272725</v>
+      </c>
+    </row>
+    <row r="101" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A101">
         <v>100</v>
       </c>
@@ -7080,8 +8595,12 @@
       <c r="I101">
         <v>2008</v>
       </c>
-    </row>
-    <row r="102" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J101">
+        <f>((Table1[[#This Row],[bill_length_mm]]-$L$2)/($L$4))*200</f>
+        <v>80.727272727272734</v>
+      </c>
+    </row>
+    <row r="102" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A102">
         <v>101</v>
       </c>
@@ -7109,8 +8628,12 @@
       <c r="I102">
         <v>2009</v>
       </c>
-    </row>
-    <row r="103" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J102">
+        <f>((Table1[[#This Row],[bill_length_mm]]-$L$2)/($L$4))*200</f>
+        <v>21.090909090909079</v>
+      </c>
+    </row>
+    <row r="103" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A103">
         <v>102</v>
       </c>
@@ -7138,8 +8661,12 @@
       <c r="I103">
         <v>2009</v>
       </c>
-    </row>
-    <row r="104" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J103">
+        <f>((Table1[[#This Row],[bill_length_mm]]-$L$2)/($L$4))*200</f>
+        <v>64.72727272727272</v>
+      </c>
+    </row>
+    <row r="104" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A104">
         <v>103</v>
       </c>
@@ -7167,8 +8694,12 @@
       <c r="I104">
         <v>2009</v>
       </c>
-    </row>
-    <row r="105" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J104">
+        <f>((Table1[[#This Row],[bill_length_mm]]-$L$2)/($L$4))*200</f>
+        <v>40.727272727272741</v>
+      </c>
+    </row>
+    <row r="105" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A105">
         <v>104</v>
       </c>
@@ -7196,8 +8727,12 @@
       <c r="I105">
         <v>2009</v>
       </c>
-    </row>
-    <row r="106" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J105">
+        <f>((Table1[[#This Row],[bill_length_mm]]-$L$2)/($L$4))*200</f>
+        <v>41.454545454545425</v>
+      </c>
+    </row>
+    <row r="106" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A106">
         <v>105</v>
       </c>
@@ -7225,8 +8760,12 @@
       <c r="I106">
         <v>2009</v>
       </c>
-    </row>
-    <row r="107" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J106">
+        <f>((Table1[[#This Row],[bill_length_mm]]-$L$2)/($L$4))*200</f>
+        <v>42.181818181818159</v>
+      </c>
+    </row>
+    <row r="107" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A107">
         <v>106</v>
       </c>
@@ -7254,8 +8793,12 @@
       <c r="I107">
         <v>2009</v>
       </c>
-    </row>
-    <row r="108" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J107">
+        <f>((Table1[[#This Row],[bill_length_mm]]-$L$2)/($L$4))*200</f>
+        <v>55.272727272727288</v>
+      </c>
+    </row>
+    <row r="108" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A108">
         <v>107</v>
       </c>
@@ -7283,8 +8826,12 @@
       <c r="I108">
         <v>2009</v>
       </c>
-    </row>
-    <row r="109" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J108">
+        <f>((Table1[[#This Row],[bill_length_mm]]-$L$2)/($L$4))*200</f>
+        <v>47.272727272727273</v>
+      </c>
+    </row>
+    <row r="109" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A109">
         <v>108</v>
       </c>
@@ -7312,8 +8859,12 @@
       <c r="I109">
         <v>2009</v>
       </c>
-    </row>
-    <row r="110" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J109">
+        <f>((Table1[[#This Row],[bill_length_mm]]-$L$2)/($L$4))*200</f>
+        <v>44.363636363636374</v>
+      </c>
+    </row>
+    <row r="110" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A110">
         <v>109</v>
       </c>
@@ -7341,8 +8892,12 @@
       <c r="I110">
         <v>2009</v>
       </c>
-    </row>
-    <row r="111" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J110">
+        <f>((Table1[[#This Row],[bill_length_mm]]-$L$2)/($L$4))*200</f>
+        <v>43.636363636363633</v>
+      </c>
+    </row>
+    <row r="111" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A111">
         <v>110</v>
       </c>
@@ -7370,8 +8925,12 @@
       <c r="I111">
         <v>2009</v>
       </c>
-    </row>
-    <row r="112" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J111">
+        <f>((Table1[[#This Row],[bill_length_mm]]-$L$2)/($L$4))*200</f>
+        <v>80.727272727272734</v>
+      </c>
+    </row>
+    <row r="112" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A112">
         <v>111</v>
       </c>
@@ -7399,8 +8958,12 @@
       <c r="I112">
         <v>2009</v>
       </c>
-    </row>
-    <row r="113" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J112">
+        <f>((Table1[[#This Row],[bill_length_mm]]-$L$2)/($L$4))*200</f>
+        <v>43.636363636363633</v>
+      </c>
+    </row>
+    <row r="113" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A113">
         <v>112</v>
       </c>
@@ -7428,8 +8991,12 @@
       <c r="I113">
         <v>2009</v>
       </c>
-    </row>
-    <row r="114" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J113">
+        <f>((Table1[[#This Row],[bill_length_mm]]-$L$2)/($L$4))*200</f>
+        <v>98.181818181818187</v>
+      </c>
+    </row>
+    <row r="114" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A114">
         <v>113</v>
       </c>
@@ -7457,8 +9024,12 @@
       <c r="I114">
         <v>2009</v>
       </c>
-    </row>
-    <row r="115" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J114">
+        <f>((Table1[[#This Row],[bill_length_mm]]-$L$2)/($L$4))*200</f>
+        <v>55.272727272727288</v>
+      </c>
+    </row>
+    <row r="115" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A115">
         <v>114</v>
       </c>
@@ -7486,8 +9057,12 @@
       <c r="I115">
         <v>2009</v>
       </c>
-    </row>
-    <row r="116" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J115">
+        <f>((Table1[[#This Row],[bill_length_mm]]-$L$2)/($L$4))*200</f>
+        <v>73.454545454545467</v>
+      </c>
+    </row>
+    <row r="116" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A116">
         <v>115</v>
       </c>
@@ -7515,8 +9090,12 @@
       <c r="I116">
         <v>2009</v>
       </c>
-    </row>
-    <row r="117" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J116">
+        <f>((Table1[[#This Row],[bill_length_mm]]-$L$2)/($L$4))*200</f>
+        <v>54.54545454545454</v>
+      </c>
+    </row>
+    <row r="117" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A117">
         <v>116</v>
       </c>
@@ -7544,8 +9123,12 @@
       <c r="I117">
         <v>2009</v>
       </c>
-    </row>
-    <row r="118" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J117">
+        <f>((Table1[[#This Row],[bill_length_mm]]-$L$2)/($L$4))*200</f>
+        <v>77.090909090909093</v>
+      </c>
+    </row>
+    <row r="118" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A118">
         <v>117</v>
       </c>
@@ -7573,8 +9156,12 @@
       <c r="I118">
         <v>2009</v>
       </c>
-    </row>
-    <row r="119" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J118">
+        <f>((Table1[[#This Row],[bill_length_mm]]-$L$2)/($L$4))*200</f>
+        <v>47.272727272727273</v>
+      </c>
+    </row>
+    <row r="119" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A119">
         <v>118</v>
       </c>
@@ -7602,8 +9189,12 @@
       <c r="I119">
         <v>2009</v>
       </c>
-    </row>
-    <row r="120" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J119">
+        <f>((Table1[[#This Row],[bill_length_mm]]-$L$2)/($L$4))*200</f>
+        <v>37.818181818181792</v>
+      </c>
+    </row>
+    <row r="120" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A120">
         <v>119</v>
       </c>
@@ -7631,8 +9222,12 @@
       <c r="I120">
         <v>2009</v>
       </c>
-    </row>
-    <row r="121" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J120">
+        <f>((Table1[[#This Row],[bill_length_mm]]-$L$2)/($L$4))*200</f>
+        <v>26.181818181818191</v>
+      </c>
+    </row>
+    <row r="121" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A121">
         <v>120</v>
       </c>
@@ -7660,8 +9255,12 @@
       <c r="I121">
         <v>2009</v>
       </c>
-    </row>
-    <row r="122" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J121">
+        <f>((Table1[[#This Row],[bill_length_mm]]-$L$2)/($L$4))*200</f>
+        <v>65.454545454545453</v>
+      </c>
+    </row>
+    <row r="122" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A122">
         <v>121</v>
       </c>
@@ -7689,8 +9288,12 @@
       <c r="I122">
         <v>2009</v>
       </c>
-    </row>
-    <row r="123" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J122">
+        <f>((Table1[[#This Row],[bill_length_mm]]-$L$2)/($L$4))*200</f>
+        <v>29.818181818181827</v>
+      </c>
+    </row>
+    <row r="123" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A123">
         <v>122</v>
       </c>
@@ -7718,8 +9321,12 @@
       <c r="I123">
         <v>2009</v>
       </c>
-    </row>
-    <row r="124" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J123">
+        <f>((Table1[[#This Row],[bill_length_mm]]-$L$2)/($L$4))*200</f>
+        <v>40.727272727272741</v>
+      </c>
+    </row>
+    <row r="124" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A124">
         <v>123</v>
       </c>
@@ -7747,8 +9354,12 @@
       <c r="I124">
         <v>2009</v>
       </c>
-    </row>
-    <row r="125" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J124">
+        <f>((Table1[[#This Row],[bill_length_mm]]-$L$2)/($L$4))*200</f>
+        <v>58.909090909090921</v>
+      </c>
+    </row>
+    <row r="125" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A125">
         <v>124</v>
       </c>
@@ -7776,8 +9387,12 @@
       <c r="I125">
         <v>2009</v>
       </c>
-    </row>
-    <row r="126" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J125">
+        <f>((Table1[[#This Row],[bill_length_mm]]-$L$2)/($L$4))*200</f>
+        <v>67.636363636363612</v>
+      </c>
+    </row>
+    <row r="126" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A126">
         <v>125</v>
       </c>
@@ -7805,8 +9420,12 @@
       <c r="I126">
         <v>2009</v>
       </c>
-    </row>
-    <row r="127" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J126">
+        <f>((Table1[[#This Row],[bill_length_mm]]-$L$2)/($L$4))*200</f>
+        <v>22.545454545454554</v>
+      </c>
+    </row>
+    <row r="127" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A127">
         <v>126</v>
       </c>
@@ -7834,8 +9453,12 @@
       <c r="I127">
         <v>2009</v>
       </c>
-    </row>
-    <row r="128" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J127">
+        <f>((Table1[[#This Row],[bill_length_mm]]-$L$2)/($L$4))*200</f>
+        <v>61.818181818181813</v>
+      </c>
+    </row>
+    <row r="128" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A128">
         <v>127</v>
       </c>
@@ -7863,8 +9486,12 @@
       <c r="I128">
         <v>2009</v>
       </c>
-    </row>
-    <row r="129" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J128">
+        <f>((Table1[[#This Row],[bill_length_mm]]-$L$2)/($L$4))*200</f>
+        <v>48.727272727272698</v>
+      </c>
+    </row>
+    <row r="129" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A129">
         <v>128</v>
       </c>
@@ -7892,8 +9519,12 @@
       <c r="I129">
         <v>2009</v>
       </c>
-    </row>
-    <row r="130" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J129">
+        <f>((Table1[[#This Row],[bill_length_mm]]-$L$2)/($L$4))*200</f>
+        <v>68.363636363636346</v>
+      </c>
+    </row>
+    <row r="130" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A130">
         <v>129</v>
       </c>
@@ -7921,8 +9552,12 @@
       <c r="I130">
         <v>2009</v>
       </c>
-    </row>
-    <row r="131" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J130">
+        <f>((Table1[[#This Row],[bill_length_mm]]-$L$2)/($L$4))*200</f>
+        <v>50.181818181818173</v>
+      </c>
+    </row>
+    <row r="131" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A131">
         <v>130</v>
       </c>
@@ -7950,8 +9585,12 @@
       <c r="I131">
         <v>2009</v>
       </c>
-    </row>
-    <row r="132" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J131">
+        <f>((Table1[[#This Row],[bill_length_mm]]-$L$2)/($L$4))*200</f>
+        <v>87.272727272727266</v>
+      </c>
+    </row>
+    <row r="132" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A132">
         <v>131</v>
       </c>
@@ -7979,8 +9618,12 @@
       <c r="I132">
         <v>2009</v>
       </c>
-    </row>
-    <row r="133" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J132">
+        <f>((Table1[[#This Row],[bill_length_mm]]-$L$2)/($L$4))*200</f>
+        <v>46.545454545454533</v>
+      </c>
+    </row>
+    <row r="133" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A133">
         <v>132</v>
       </c>
@@ -8008,8 +9651,12 @@
       <c r="I133">
         <v>2009</v>
       </c>
-    </row>
-    <row r="134" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J133">
+        <f>((Table1[[#This Row],[bill_length_mm]]-$L$2)/($L$4))*200</f>
+        <v>80</v>
+      </c>
+    </row>
+    <row r="134" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A134">
         <v>133</v>
       </c>
@@ -8037,8 +9684,12 @@
       <c r="I134">
         <v>2009</v>
       </c>
-    </row>
-    <row r="135" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J134">
+        <f>((Table1[[#This Row],[bill_length_mm]]-$L$2)/($L$4))*200</f>
+        <v>34.181818181818151</v>
+      </c>
+    </row>
+    <row r="135" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A135">
         <v>134</v>
       </c>
@@ -8066,8 +9717,12 @@
       <c r="I135">
         <v>2009</v>
       </c>
-    </row>
-    <row r="136" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J135">
+        <f>((Table1[[#This Row],[bill_length_mm]]-$L$2)/($L$4))*200</f>
+        <v>39.272727272727266</v>
+      </c>
+    </row>
+    <row r="136" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A136">
         <v>135</v>
       </c>
@@ -8095,8 +9750,12 @@
       <c r="I136">
         <v>2009</v>
       </c>
-    </row>
-    <row r="137" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J136">
+        <f>((Table1[[#This Row],[bill_length_mm]]-$L$2)/($L$4))*200</f>
+        <v>43.636363636363633</v>
+      </c>
+    </row>
+    <row r="137" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A137">
         <v>136</v>
       </c>
@@ -8124,8 +9783,12 @@
       <c r="I137">
         <v>2009</v>
       </c>
-    </row>
-    <row r="138" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J137">
+        <f>((Table1[[#This Row],[bill_length_mm]]-$L$2)/($L$4))*200</f>
+        <v>65.454545454545453</v>
+      </c>
+    </row>
+    <row r="138" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A138">
         <v>137</v>
       </c>
@@ -8153,8 +9816,12 @@
       <c r="I138">
         <v>2009</v>
       </c>
-    </row>
-    <row r="139" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J138">
+        <f>((Table1[[#This Row],[bill_length_mm]]-$L$2)/($L$4))*200</f>
+        <v>25.454545454545453</v>
+      </c>
+    </row>
+    <row r="139" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A139">
         <v>138</v>
       </c>
@@ -8182,8 +9849,12 @@
       <c r="I139">
         <v>2009</v>
       </c>
-    </row>
-    <row r="140" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J139">
+        <f>((Table1[[#This Row],[bill_length_mm]]-$L$2)/($L$4))*200</f>
+        <v>58.909090909090921</v>
+      </c>
+    </row>
+    <row r="140" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A140">
         <v>139</v>
       </c>
@@ -8211,8 +9882,12 @@
       <c r="I140">
         <v>2009</v>
       </c>
-    </row>
-    <row r="141" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J140">
+        <f>((Table1[[#This Row],[bill_length_mm]]-$L$2)/($L$4))*200</f>
+        <v>35.636363636363626</v>
+      </c>
+    </row>
+    <row r="141" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A141">
         <v>140</v>
       </c>
@@ -8240,8 +9915,12 @@
       <c r="I141">
         <v>2009</v>
       </c>
-    </row>
-    <row r="142" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J141">
+        <f>((Table1[[#This Row],[bill_length_mm]]-$L$2)/($L$4))*200</f>
+        <v>55.272727272727288</v>
+      </c>
+    </row>
+    <row r="142" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A142">
         <v>141</v>
       </c>
@@ -8269,8 +9948,12 @@
       <c r="I142">
         <v>2009</v>
       </c>
-    </row>
-    <row r="143" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J142">
+        <f>((Table1[[#This Row],[bill_length_mm]]-$L$2)/($L$4))*200</f>
+        <v>58.909090909090921</v>
+      </c>
+    </row>
+    <row r="143" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A143">
         <v>142</v>
       </c>
@@ -8298,8 +9981,12 @@
       <c r="I143">
         <v>2009</v>
       </c>
-    </row>
-    <row r="144" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J143">
+        <f>((Table1[[#This Row],[bill_length_mm]]-$L$2)/($L$4))*200</f>
+        <v>61.818181818181813</v>
+      </c>
+    </row>
+    <row r="144" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A144">
         <v>143</v>
       </c>
@@ -8327,8 +10014,12 @@
       <c r="I144">
         <v>2009</v>
       </c>
-    </row>
-    <row r="145" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J144">
+        <f>((Table1[[#This Row],[bill_length_mm]]-$L$2)/($L$4))*200</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="145" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A145">
         <v>144</v>
       </c>
@@ -8356,8 +10047,12 @@
       <c r="I145">
         <v>2009</v>
       </c>
-    </row>
-    <row r="146" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J145">
+        <f>((Table1[[#This Row],[bill_length_mm]]-$L$2)/($L$4))*200</f>
+        <v>62.545454545454561</v>
+      </c>
+    </row>
+    <row r="146" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A146">
         <v>145</v>
       </c>
@@ -8385,8 +10080,12 @@
       <c r="I146">
         <v>2009</v>
       </c>
-    </row>
-    <row r="147" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J146">
+        <f>((Table1[[#This Row],[bill_length_mm]]-$L$2)/($L$4))*200</f>
+        <v>37.818181818181792</v>
+      </c>
+    </row>
+    <row r="147" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A147">
         <v>146</v>
       </c>
@@ -8414,8 +10113,12 @@
       <c r="I147">
         <v>2009</v>
       </c>
-    </row>
-    <row r="148" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J147">
+        <f>((Table1[[#This Row],[bill_length_mm]]-$L$2)/($L$4))*200</f>
+        <v>50.181818181818173</v>
+      </c>
+    </row>
+    <row r="148" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A148">
         <v>147</v>
       </c>
@@ -8443,8 +10146,12 @@
       <c r="I148">
         <v>2009</v>
       </c>
-    </row>
-    <row r="149" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J148">
+        <f>((Table1[[#This Row],[bill_length_mm]]-$L$2)/($L$4))*200</f>
+        <v>51.636363636363647</v>
+      </c>
+    </row>
+    <row r="149" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A149">
         <v>148</v>
       </c>
@@ -8472,8 +10179,12 @@
       <c r="I149">
         <v>2009</v>
       </c>
-    </row>
-    <row r="150" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J149">
+        <f>((Table1[[#This Row],[bill_length_mm]]-$L$2)/($L$4))*200</f>
+        <v>32.727272727272727</v>
+      </c>
+    </row>
+    <row r="150" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A150">
         <v>149</v>
       </c>
@@ -8501,8 +10212,12 @@
       <c r="I150">
         <v>2009</v>
       </c>
-    </row>
-    <row r="151" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J150">
+        <f>((Table1[[#This Row],[bill_length_mm]]-$L$2)/($L$4))*200</f>
+        <v>28.363636363636353</v>
+      </c>
+    </row>
+    <row r="151" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A151">
         <v>150</v>
       </c>
@@ -8530,8 +10245,12 @@
       <c r="I151">
         <v>2009</v>
       </c>
-    </row>
-    <row r="152" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J151">
+        <f>((Table1[[#This Row],[bill_length_mm]]-$L$2)/($L$4))*200</f>
+        <v>41.454545454545425</v>
+      </c>
+    </row>
+    <row r="152" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A152">
         <v>151</v>
       </c>
@@ -8559,8 +10278,12 @@
       <c r="I152">
         <v>2009</v>
       </c>
-    </row>
-    <row r="153" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J152">
+        <f>((Table1[[#This Row],[bill_length_mm]]-$L$2)/($L$4))*200</f>
+        <v>28.363636363636353</v>
+      </c>
+    </row>
+    <row r="153" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A153">
         <v>152</v>
       </c>
@@ -8588,8 +10311,12 @@
       <c r="I153">
         <v>2009</v>
       </c>
-    </row>
-    <row r="154" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J153">
+        <f>((Table1[[#This Row],[bill_length_mm]]-$L$2)/($L$4))*200</f>
+        <v>68.363636363636346</v>
+      </c>
+    </row>
+    <row r="154" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A154">
         <v>153</v>
       </c>
@@ -8617,8 +10344,12 @@
       <c r="I154">
         <v>2007</v>
       </c>
-    </row>
-    <row r="155" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J154">
+        <f>((Table1[[#This Row],[bill_length_mm]]-$L$2)/($L$4))*200</f>
+        <v>101.81818181818181</v>
+      </c>
+    </row>
+    <row r="155" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A155">
         <v>154</v>
       </c>
@@ -8646,8 +10377,12 @@
       <c r="I155">
         <v>2007</v>
       </c>
-    </row>
-    <row r="156" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J155">
+        <f>((Table1[[#This Row],[bill_length_mm]]-$L$2)/($L$4))*200</f>
+        <v>130.18181818181819</v>
+      </c>
+    </row>
+    <row r="156" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A156">
         <v>155</v>
       </c>
@@ -8675,8 +10410,12 @@
       <c r="I156">
         <v>2007</v>
       </c>
-    </row>
-    <row r="157" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J156">
+        <f>((Table1[[#This Row],[bill_length_mm]]-$L$2)/($L$4))*200</f>
+        <v>120.72727272727273</v>
+      </c>
+    </row>
+    <row r="157" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A157">
         <v>156</v>
       </c>
@@ -8704,8 +10443,12 @@
       <c r="I157">
         <v>2007</v>
       </c>
-    </row>
-    <row r="158" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J157">
+        <f>((Table1[[#This Row],[bill_length_mm]]-$L$2)/($L$4))*200</f>
+        <v>130.18181818181819</v>
+      </c>
+    </row>
+    <row r="158" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A158">
         <v>157</v>
       </c>
@@ -8733,8 +10476,12 @@
       <c r="I158">
         <v>2007</v>
       </c>
-    </row>
-    <row r="159" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J158">
+        <f>((Table1[[#This Row],[bill_length_mm]]-$L$2)/($L$4))*200</f>
+        <v>112.72727272727272</v>
+      </c>
+    </row>
+    <row r="159" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A159">
         <v>158</v>
       </c>
@@ -8762,8 +10509,12 @@
       <c r="I159">
         <v>2007</v>
       </c>
-    </row>
-    <row r="160" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J159">
+        <f>((Table1[[#This Row],[bill_length_mm]]-$L$2)/($L$4))*200</f>
+        <v>104.72727272727272</v>
+      </c>
+    </row>
+    <row r="160" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A160">
         <v>159</v>
       </c>
@@ -8791,8 +10542,12 @@
       <c r="I160">
         <v>2007</v>
       </c>
-    </row>
-    <row r="161" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J160">
+        <f>((Table1[[#This Row],[bill_length_mm]]-$L$2)/($L$4))*200</f>
+        <v>96.727272727272705</v>
+      </c>
+    </row>
+    <row r="161" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A161">
         <v>160</v>
       </c>
@@ -8820,8 +10575,12 @@
       <c r="I161">
         <v>2007</v>
       </c>
-    </row>
-    <row r="162" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J161">
+        <f>((Table1[[#This Row],[bill_length_mm]]-$L$2)/($L$4))*200</f>
+        <v>106.1818181818182</v>
+      </c>
+    </row>
+    <row r="162" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A162">
         <v>161</v>
       </c>
@@ -8849,8 +10608,12 @@
       <c r="I162">
         <v>2007</v>
       </c>
-    </row>
-    <row r="163" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J162">
+        <f>((Table1[[#This Row],[bill_length_mm]]-$L$2)/($L$4))*200</f>
+        <v>81.454545454545425</v>
+      </c>
+    </row>
+    <row r="163" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A163">
         <v>162</v>
       </c>
@@ -8878,8 +10641,12 @@
       <c r="I163">
         <v>2007</v>
       </c>
-    </row>
-    <row r="164" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J163">
+        <f>((Table1[[#This Row],[bill_length_mm]]-$L$2)/($L$4))*200</f>
+        <v>106.90909090909089</v>
+      </c>
+    </row>
+    <row r="164" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A164">
         <v>163</v>
       </c>
@@ -8907,8 +10674,12 @@
       <c r="I164">
         <v>2007</v>
       </c>
-    </row>
-    <row r="165" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J164">
+        <f>((Table1[[#This Row],[bill_length_mm]]-$L$2)/($L$4))*200</f>
+        <v>63.999999999999979</v>
+      </c>
+    </row>
+    <row r="165" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A165">
         <v>164</v>
       </c>
@@ -8936,8 +10707,12 @@
       <c r="I165">
         <v>2007</v>
       </c>
-    </row>
-    <row r="166" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J165">
+        <f>((Table1[[#This Row],[bill_length_mm]]-$L$2)/($L$4))*200</f>
+        <v>122.90909090909091</v>
+      </c>
+    </row>
+    <row r="166" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A166">
         <v>165</v>
       </c>
@@ -8965,8 +10740,12 @@
       <c r="I166">
         <v>2007</v>
       </c>
-    </row>
-    <row r="167" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J166">
+        <f>((Table1[[#This Row],[bill_length_mm]]-$L$2)/($L$4))*200</f>
+        <v>97.454545454545453</v>
+      </c>
+    </row>
+    <row r="167" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A167">
         <v>166</v>
       </c>
@@ -8994,8 +10773,12 @@
       <c r="I167">
         <v>2007</v>
       </c>
-    </row>
-    <row r="168" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J167">
+        <f>((Table1[[#This Row],[bill_length_mm]]-$L$2)/($L$4))*200</f>
+        <v>118.54545454545453</v>
+      </c>
+    </row>
+    <row r="168" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A168">
         <v>167</v>
       </c>
@@ -9023,8 +10806,12 @@
       <c r="I168">
         <v>2007</v>
       </c>
-    </row>
-    <row r="169" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J168">
+        <f>((Table1[[#This Row],[bill_length_mm]]-$L$2)/($L$4))*200</f>
+        <v>99.636363636363598</v>
+      </c>
+    </row>
+    <row r="169" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A169">
         <v>168</v>
       </c>
@@ -9052,8 +10839,12 @@
       <c r="I169">
         <v>2007</v>
       </c>
-    </row>
-    <row r="170" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J169">
+        <f>((Table1[[#This Row],[bill_length_mm]]-$L$2)/($L$4))*200</f>
+        <v>125.09090909090905</v>
+      </c>
+    </row>
+    <row r="170" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A170">
         <v>169</v>
       </c>
@@ -9081,8 +10872,12 @@
       <c r="I170">
         <v>2007</v>
       </c>
-    </row>
-    <row r="171" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J170">
+        <f>((Table1[[#This Row],[bill_length_mm]]-$L$2)/($L$4))*200</f>
+        <v>71.999999999999986</v>
+      </c>
+    </row>
+    <row r="171" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A171">
         <v>170</v>
       </c>
@@ -9110,8 +10905,12 @@
       <c r="I171">
         <v>2007</v>
       </c>
-    </row>
-    <row r="172" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J171">
+        <f>((Table1[[#This Row],[bill_length_mm]]-$L$2)/($L$4))*200</f>
+        <v>124.36363636363636</v>
+      </c>
+    </row>
+    <row r="172" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A172">
         <v>171</v>
       </c>
@@ -9139,8 +10938,12 @@
       <c r="I172">
         <v>2007</v>
       </c>
-    </row>
-    <row r="173" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J172">
+        <f>((Table1[[#This Row],[bill_length_mm]]-$L$2)/($L$4))*200</f>
+        <v>102.54545454545456</v>
+      </c>
+    </row>
+    <row r="173" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A173">
         <v>172</v>
       </c>
@@ -9168,8 +10971,12 @@
       <c r="I173">
         <v>2007</v>
       </c>
-    </row>
-    <row r="174" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J173">
+        <f>((Table1[[#This Row],[bill_length_mm]]-$L$2)/($L$4))*200</f>
+        <v>120.72727272727273</v>
+      </c>
+    </row>
+    <row r="174" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A174">
         <v>173</v>
       </c>
@@ -9197,8 +11004,12 @@
       <c r="I174">
         <v>2007</v>
       </c>
-    </row>
-    <row r="175" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J174">
+        <f>((Table1[[#This Row],[bill_length_mm]]-$L$2)/($L$4))*200</f>
+        <v>131.63636363636363</v>
+      </c>
+    </row>
+    <row r="175" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A175">
         <v>174</v>
       </c>
@@ -9226,8 +11037,12 @@
       <c r="I175">
         <v>2007</v>
       </c>
-    </row>
-    <row r="176" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J175">
+        <f>((Table1[[#This Row],[bill_length_mm]]-$L$2)/($L$4))*200</f>
+        <v>94.545454545454547</v>
+      </c>
+    </row>
+    <row r="176" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A176">
         <v>175</v>
       </c>
@@ -9255,8 +11070,12 @@
       <c r="I176">
         <v>2007</v>
       </c>
-    </row>
-    <row r="177" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J176">
+        <f>((Table1[[#This Row],[bill_length_mm]]-$L$2)/($L$4))*200</f>
+        <v>104.72727272727272</v>
+      </c>
+    </row>
+    <row r="177" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A177">
         <v>176</v>
       </c>
@@ -9284,8 +11103,12 @@
       <c r="I177">
         <v>2007</v>
       </c>
-    </row>
-    <row r="178" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J177">
+        <f>((Table1[[#This Row],[bill_length_mm]]-$L$2)/($L$4))*200</f>
+        <v>103.27272727272725</v>
+      </c>
+    </row>
+    <row r="178" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A178">
         <v>177</v>
       </c>
@@ -9313,8 +11136,12 @@
       <c r="I178">
         <v>2007</v>
       </c>
-    </row>
-    <row r="179" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J178">
+        <f>((Table1[[#This Row],[bill_length_mm]]-$L$2)/($L$4))*200</f>
+        <v>78.545454545454533</v>
+      </c>
+    </row>
+    <row r="179" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A179">
         <v>178</v>
       </c>
@@ -9342,8 +11169,12 @@
       <c r="I179">
         <v>2007</v>
       </c>
-    </row>
-    <row r="180" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J179">
+        <f>((Table1[[#This Row],[bill_length_mm]]-$L$2)/($L$4))*200</f>
+        <v>101.81818181818181</v>
+      </c>
+    </row>
+    <row r="180" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A180">
         <v>179</v>
       </c>
@@ -9371,8 +11202,12 @@
       <c r="I180">
         <v>2007</v>
       </c>
-    </row>
-    <row r="181" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J180">
+        <f>((Table1[[#This Row],[bill_length_mm]]-$L$2)/($L$4))*200</f>
+        <v>90.181818181818173</v>
+      </c>
+    </row>
+    <row r="181" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A181">
         <v>180</v>
       </c>
@@ -9400,8 +11235,12 @@
       <c r="I181">
         <v>2007</v>
       </c>
-    </row>
-    <row r="182" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J181">
+        <f>((Table1[[#This Row],[bill_length_mm]]-$L$2)/($L$4))*200</f>
+        <v>114.18181818181814</v>
+      </c>
+    </row>
+    <row r="182" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A182">
         <v>181</v>
       </c>
@@ -9429,8 +11268,12 @@
       <c r="I182">
         <v>2007</v>
       </c>
-    </row>
-    <row r="183" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J182">
+        <f>((Table1[[#This Row],[bill_length_mm]]-$L$2)/($L$4))*200</f>
+        <v>117.09090909090911</v>
+      </c>
+    </row>
+    <row r="183" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A183">
         <v>182</v>
       </c>
@@ -9458,8 +11301,12 @@
       <c r="I183">
         <v>2007</v>
       </c>
-    </row>
-    <row r="184" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J183">
+        <f>((Table1[[#This Row],[bill_length_mm]]-$L$2)/($L$4))*200</f>
+        <v>130.18181818181819</v>
+      </c>
+    </row>
+    <row r="184" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A184">
         <v>183</v>
       </c>
@@ -9487,8 +11334,12 @@
       <c r="I184">
         <v>2007</v>
       </c>
-    </row>
-    <row r="185" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J184">
+        <f>((Table1[[#This Row],[bill_length_mm]]-$L$2)/($L$4))*200</f>
+        <v>110.54545454545452</v>
+      </c>
+    </row>
+    <row r="185" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A185">
         <v>184</v>
       </c>
@@ -9516,8 +11367,12 @@
       <c r="I185">
         <v>2007</v>
       </c>
-    </row>
-    <row r="186" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J185">
+        <f>((Table1[[#This Row],[bill_length_mm]]-$L$2)/($L$4))*200</f>
+        <v>77.818181818181785</v>
+      </c>
+    </row>
+    <row r="186" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A186">
         <v>185</v>
       </c>
@@ -9545,8 +11400,12 @@
       <c r="I186">
         <v>2007</v>
       </c>
-    </row>
-    <row r="187" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J186">
+        <f>((Table1[[#This Row],[bill_length_mm]]-$L$2)/($L$4))*200</f>
+        <v>94.545454545454547</v>
+      </c>
+    </row>
+    <row r="187" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A187">
         <v>186</v>
       </c>
@@ -9574,8 +11433,12 @@
       <c r="I187">
         <v>2007</v>
       </c>
-    </row>
-    <row r="188" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J187">
+        <f>((Table1[[#This Row],[bill_length_mm]]-$L$2)/($L$4))*200</f>
+        <v>200</v>
+      </c>
+    </row>
+    <row r="188" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A188">
         <v>187</v>
       </c>
@@ -9603,8 +11466,12 @@
       <c r="I188">
         <v>2008</v>
       </c>
-    </row>
-    <row r="189" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J188">
+        <f>((Table1[[#This Row],[bill_length_mm]]-$L$2)/($L$4))*200</f>
+        <v>123.63636363636363</v>
+      </c>
+    </row>
+    <row r="189" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A189">
         <v>188</v>
       </c>
@@ -9632,8 +11499,12 @@
       <c r="I189">
         <v>2008</v>
       </c>
-    </row>
-    <row r="190" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J189">
+        <f>((Table1[[#This Row],[bill_length_mm]]-$L$2)/($L$4))*200</f>
+        <v>118.54545454545453</v>
+      </c>
+    </row>
+    <row r="190" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A190">
         <v>189</v>
       </c>
@@ -9661,8 +11532,12 @@
       <c r="I190">
         <v>2008</v>
       </c>
-    </row>
-    <row r="191" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J190">
+        <f>((Table1[[#This Row],[bill_length_mm]]-$L$2)/($L$4))*200</f>
+        <v>76.363636363636374</v>
+      </c>
+    </row>
+    <row r="191" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A191">
         <v>190</v>
       </c>
@@ -9690,8 +11565,12 @@
       <c r="I191">
         <v>2008</v>
       </c>
-    </row>
-    <row r="192" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J191">
+        <f>((Table1[[#This Row],[bill_length_mm]]-$L$2)/($L$4))*200</f>
+        <v>89.454545454545425</v>
+      </c>
+    </row>
+    <row r="192" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A192">
         <v>191</v>
       </c>
@@ -9719,8 +11598,12 @@
       <c r="I192">
         <v>2008</v>
       </c>
-    </row>
-    <row r="193" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J192">
+        <f>((Table1[[#This Row],[bill_length_mm]]-$L$2)/($L$4))*200</f>
+        <v>86.545454545454533</v>
+      </c>
+    </row>
+    <row r="193" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A193">
         <v>192</v>
       </c>
@@ -9748,8 +11631,12 @@
       <c r="I193">
         <v>2008</v>
       </c>
-    </row>
-    <row r="194" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J193">
+        <f>((Table1[[#This Row],[bill_length_mm]]-$L$2)/($L$4))*200</f>
+        <v>120.72727272727273</v>
+      </c>
+    </row>
+    <row r="194" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A194">
         <v>193</v>
       </c>
@@ -9777,8 +11664,12 @@
       <c r="I194">
         <v>2008</v>
       </c>
-    </row>
-    <row r="195" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J194">
+        <f>((Table1[[#This Row],[bill_length_mm]]-$L$2)/($L$4))*200</f>
+        <v>77.090909090909093</v>
+      </c>
+    </row>
+    <row r="195" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A195">
         <v>194</v>
       </c>
@@ -9806,8 +11697,12 @@
       <c r="I195">
         <v>2008</v>
       </c>
-    </row>
-    <row r="196" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J195">
+        <f>((Table1[[#This Row],[bill_length_mm]]-$L$2)/($L$4))*200</f>
+        <v>127.27272727272727</v>
+      </c>
+    </row>
+    <row r="196" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A196">
         <v>195</v>
       </c>
@@ -9835,8 +11730,12 @@
       <c r="I196">
         <v>2008</v>
       </c>
-    </row>
-    <row r="197" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J196">
+        <f>((Table1[[#This Row],[bill_length_mm]]-$L$2)/($L$4))*200</f>
+        <v>95.999999999999972</v>
+      </c>
+    </row>
+    <row r="197" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A197">
         <v>196</v>
       </c>
@@ -9864,8 +11763,12 @@
       <c r="I197">
         <v>2008</v>
       </c>
-    </row>
-    <row r="198" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J197">
+        <f>((Table1[[#This Row],[bill_length_mm]]-$L$2)/($L$4))*200</f>
+        <v>127.27272727272727</v>
+      </c>
+    </row>
+    <row r="198" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A198">
         <v>197</v>
       </c>
@@ -9893,8 +11796,12 @@
       <c r="I198">
         <v>2008</v>
       </c>
-    </row>
-    <row r="199" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J198">
+        <f>((Table1[[#This Row],[bill_length_mm]]-$L$2)/($L$4))*200</f>
+        <v>133.81818181818181</v>
+      </c>
+    </row>
+    <row r="199" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A199">
         <v>198</v>
       </c>
@@ -9922,8 +11829,12 @@
       <c r="I199">
         <v>2008</v>
       </c>
-    </row>
-    <row r="200" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J199">
+        <f>((Table1[[#This Row],[bill_length_mm]]-$L$2)/($L$4))*200</f>
+        <v>83.636363636363626</v>
+      </c>
+    </row>
+    <row r="200" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A200">
         <v>199</v>
       </c>
@@ -9951,8 +11862,12 @@
       <c r="I200">
         <v>2008</v>
       </c>
-    </row>
-    <row r="201" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J200">
+        <f>((Table1[[#This Row],[bill_length_mm]]-$L$2)/($L$4))*200</f>
+        <v>97.454545454545453</v>
+      </c>
+    </row>
+    <row r="201" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A201">
         <v>200</v>
       </c>
@@ -9980,8 +11895,12 @@
       <c r="I201">
         <v>2008</v>
       </c>
-    </row>
-    <row r="202" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J201">
+        <f>((Table1[[#This Row],[bill_length_mm]]-$L$2)/($L$4))*200</f>
+        <v>133.81818181818181</v>
+      </c>
+    </row>
+    <row r="202" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A202">
         <v>201</v>
       </c>
@@ -10009,8 +11928,12 @@
       <c r="I202">
         <v>2008</v>
       </c>
-    </row>
-    <row r="203" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J202">
+        <f>((Table1[[#This Row],[bill_length_mm]]-$L$2)/($L$4))*200</f>
+        <v>93.090909090909065</v>
+      </c>
+    </row>
+    <row r="203" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A203">
         <v>202</v>
       </c>
@@ -10038,8 +11961,12 @@
       <c r="I203">
         <v>2008</v>
       </c>
-    </row>
-    <row r="204" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J203">
+        <f>((Table1[[#This Row],[bill_length_mm]]-$L$2)/($L$4))*200</f>
+        <v>95.27272727272728</v>
+      </c>
+    </row>
+    <row r="204" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A204">
         <v>203</v>
       </c>
@@ -10067,8 +11994,12 @@
       <c r="I204">
         <v>2008</v>
       </c>
-    </row>
-    <row r="205" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J204">
+        <f>((Table1[[#This Row],[bill_length_mm]]-$L$2)/($L$4))*200</f>
+        <v>105.45454545454544</v>
+      </c>
+    </row>
+    <row r="205" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A205">
         <v>204</v>
       </c>
@@ -10096,8 +12027,12 @@
       <c r="I205">
         <v>2008</v>
       </c>
-    </row>
-    <row r="206" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J205">
+        <f>((Table1[[#This Row],[bill_length_mm]]-$L$2)/($L$4))*200</f>
+        <v>119.27272727272727</v>
+      </c>
+    </row>
+    <row r="206" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A206">
         <v>205</v>
       </c>
@@ -10125,8 +12060,12 @@
       <c r="I206">
         <v>2008</v>
       </c>
-    </row>
-    <row r="207" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J206">
+        <f>((Table1[[#This Row],[bill_length_mm]]-$L$2)/($L$4))*200</f>
+        <v>94.545454545454547</v>
+      </c>
+    </row>
+    <row r="207" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A207">
         <v>206</v>
       </c>
@@ -10154,8 +12093,12 @@
       <c r="I207">
         <v>2008</v>
       </c>
-    </row>
-    <row r="208" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J207">
+        <f>((Table1[[#This Row],[bill_length_mm]]-$L$2)/($L$4))*200</f>
+        <v>130.90909090909091</v>
+      </c>
+    </row>
+    <row r="208" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A208">
         <v>207</v>
       </c>
@@ -10183,8 +12126,12 @@
       <c r="I208">
         <v>2008</v>
       </c>
-    </row>
-    <row r="209" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J208">
+        <f>((Table1[[#This Row],[bill_length_mm]]-$L$2)/($L$4))*200</f>
+        <v>104.72727272727272</v>
+      </c>
+    </row>
+    <row r="209" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A209">
         <v>208</v>
       </c>
@@ -10212,8 +12159,12 @@
       <c r="I209">
         <v>2008</v>
       </c>
-    </row>
-    <row r="210" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J209">
+        <f>((Table1[[#This Row],[bill_length_mm]]-$L$2)/($L$4))*200</f>
+        <v>93.818181818181813</v>
+      </c>
+    </row>
+    <row r="210" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A210">
         <v>209</v>
       </c>
@@ -10241,8 +12192,12 @@
       <c r="I210">
         <v>2008</v>
       </c>
-    </row>
-    <row r="211" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J210">
+        <f>((Table1[[#This Row],[bill_length_mm]]-$L$2)/($L$4))*200</f>
+        <v>85.090909090909065</v>
+      </c>
+    </row>
+    <row r="211" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A211">
         <v>210</v>
       </c>
@@ -10270,8 +12225,12 @@
       <c r="I211">
         <v>2008</v>
       </c>
-    </row>
-    <row r="212" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J211">
+        <f>((Table1[[#This Row],[bill_length_mm]]-$L$2)/($L$4))*200</f>
+        <v>97.454545454545453</v>
+      </c>
+    </row>
+    <row r="212" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A212">
         <v>211</v>
       </c>
@@ -10299,8 +12258,12 @@
       <c r="I212">
         <v>2008</v>
       </c>
-    </row>
-    <row r="213" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J212">
+        <f>((Table1[[#This Row],[bill_length_mm]]-$L$2)/($L$4))*200</f>
+        <v>80.727272727272734</v>
+      </c>
+    </row>
+    <row r="213" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A213">
         <v>212</v>
       </c>
@@ -10328,8 +12291,12 @@
       <c r="I213">
         <v>2008</v>
       </c>
-    </row>
-    <row r="214" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J213">
+        <f>((Table1[[#This Row],[bill_length_mm]]-$L$2)/($L$4))*200</f>
+        <v>133.09090909090907</v>
+      </c>
+    </row>
+    <row r="214" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A214">
         <v>213</v>
       </c>
@@ -10357,8 +12324,12 @@
       <c r="I214">
         <v>2008</v>
       </c>
-    </row>
-    <row r="215" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J214">
+        <f>((Table1[[#This Row],[bill_length_mm]]-$L$2)/($L$4))*200</f>
+        <v>95.999999999999972</v>
+      </c>
+    </row>
+    <row r="215" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A215">
         <v>214</v>
       </c>
@@ -10386,8 +12357,12 @@
       <c r="I215">
         <v>2008</v>
       </c>
-    </row>
-    <row r="216" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J215">
+        <f>((Table1[[#This Row],[bill_length_mm]]-$L$2)/($L$4))*200</f>
+        <v>102.54545454545456</v>
+      </c>
+    </row>
+    <row r="216" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A216">
         <v>215</v>
       </c>
@@ -10415,8 +12390,12 @@
       <c r="I216">
         <v>2008</v>
       </c>
-    </row>
-    <row r="217" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J216">
+        <f>((Table1[[#This Row],[bill_length_mm]]-$L$2)/($L$4))*200</f>
+        <v>98.909090909090921</v>
+      </c>
+    </row>
+    <row r="217" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A217">
         <v>216</v>
       </c>
@@ -10444,8 +12423,12 @@
       <c r="I217">
         <v>2008</v>
       </c>
-    </row>
-    <row r="218" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J217">
+        <f>((Table1[[#This Row],[bill_length_mm]]-$L$2)/($L$4))*200</f>
+        <v>161.45454545454544</v>
+      </c>
+    </row>
+    <row r="218" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A218">
         <v>217</v>
       </c>
@@ -10473,8 +12456,12 @@
       <c r="I218">
         <v>2008</v>
       </c>
-    </row>
-    <row r="219" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J218">
+        <f>((Table1[[#This Row],[bill_length_mm]]-$L$2)/($L$4))*200</f>
+        <v>99.636363636363598</v>
+      </c>
+    </row>
+    <row r="219" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A219">
         <v>218</v>
       </c>
@@ -10502,8 +12489,12 @@
       <c r="I219">
         <v>2008</v>
       </c>
-    </row>
-    <row r="220" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J219">
+        <f>((Table1[[#This Row],[bill_length_mm]]-$L$2)/($L$4))*200</f>
+        <v>128.72727272727269</v>
+      </c>
+    </row>
+    <row r="220" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A220">
         <v>219</v>
       </c>
@@ -10531,8 +12522,12 @@
       <c r="I220">
         <v>2008</v>
       </c>
-    </row>
-    <row r="221" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J220">
+        <f>((Table1[[#This Row],[bill_length_mm]]-$L$2)/($L$4))*200</f>
+        <v>102.54545454545456</v>
+      </c>
+    </row>
+    <row r="221" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A221">
         <v>220</v>
       </c>
@@ -10560,8 +12555,12 @@
       <c r="I221">
         <v>2008</v>
       </c>
-    </row>
-    <row r="222" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J221">
+        <f>((Table1[[#This Row],[bill_length_mm]]-$L$2)/($L$4))*200</f>
+        <v>126.54545454545453</v>
+      </c>
+    </row>
+    <row r="222" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A222">
         <v>221</v>
       </c>
@@ -10589,8 +12588,12 @@
       <c r="I222">
         <v>2008</v>
       </c>
-    </row>
-    <row r="223" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J222">
+        <f>((Table1[[#This Row],[bill_length_mm]]-$L$2)/($L$4))*200</f>
+        <v>82.909090909090892</v>
+      </c>
+    </row>
+    <row r="223" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A223">
         <v>222</v>
       </c>
@@ -10618,8 +12621,12 @@
       <c r="I223">
         <v>2008</v>
       </c>
-    </row>
-    <row r="224" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J223">
+        <f>((Table1[[#This Row],[bill_length_mm]]-$L$2)/($L$4))*200</f>
+        <v>135.27272727272728</v>
+      </c>
+    </row>
+    <row r="224" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A224">
         <v>223</v>
       </c>
@@ -10647,8 +12654,12 @@
       <c r="I224">
         <v>2008</v>
       </c>
-    </row>
-    <row r="225" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J224">
+        <f>((Table1[[#This Row],[bill_length_mm]]-$L$2)/($L$4))*200</f>
+        <v>113.45454545454547</v>
+      </c>
+    </row>
+    <row r="225" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A225">
         <v>224</v>
       </c>
@@ -10676,8 +12687,12 @@
       <c r="I225">
         <v>2008</v>
       </c>
-    </row>
-    <row r="226" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J225">
+        <f>((Table1[[#This Row],[bill_length_mm]]-$L$2)/($L$4))*200</f>
+        <v>103.99999999999999</v>
+      </c>
+    </row>
+    <row r="226" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A226">
         <v>225</v>
       </c>
@@ -10705,8 +12720,12 @@
       <c r="I226">
         <v>2008</v>
       </c>
-    </row>
-    <row r="227" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J226">
+        <f>((Table1[[#This Row],[bill_length_mm]]-$L$2)/($L$4))*200</f>
+        <v>117.09090909090911</v>
+      </c>
+    </row>
+    <row r="227" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A227">
         <v>226</v>
       </c>
@@ -10734,8 +12753,12 @@
       <c r="I227">
         <v>2008</v>
       </c>
-    </row>
-    <row r="228" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J227">
+        <f>((Table1[[#This Row],[bill_length_mm]]-$L$2)/($L$4))*200</f>
+        <v>104.72727272727272</v>
+      </c>
+    </row>
+    <row r="228" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A228">
         <v>227</v>
       </c>
@@ -10763,8 +12786,12 @@
       <c r="I228">
         <v>2008</v>
       </c>
-    </row>
-    <row r="229" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J228">
+        <f>((Table1[[#This Row],[bill_length_mm]]-$L$2)/($L$4))*200</f>
+        <v>103.99999999999999</v>
+      </c>
+    </row>
+    <row r="229" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A229">
         <v>228</v>
       </c>
@@ -10792,8 +12819,12 @@
       <c r="I229">
         <v>2008</v>
       </c>
-    </row>
-    <row r="230" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J229">
+        <f>((Table1[[#This Row],[bill_length_mm]]-$L$2)/($L$4))*200</f>
+        <v>120</v>
+      </c>
+    </row>
+    <row r="230" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A230">
         <v>229</v>
       </c>
@@ -10821,8 +12852,12 @@
       <c r="I230">
         <v>2008</v>
       </c>
-    </row>
-    <row r="231" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J230">
+        <f>((Table1[[#This Row],[bill_length_mm]]-$L$2)/($L$4))*200</f>
+        <v>111.99999999999999</v>
+      </c>
+    </row>
+    <row r="231" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A231">
         <v>230</v>
       </c>
@@ -10850,8 +12885,12 @@
       <c r="I231">
         <v>2008</v>
       </c>
-    </row>
-    <row r="232" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J231">
+        <f>((Table1[[#This Row],[bill_length_mm]]-$L$2)/($L$4))*200</f>
+        <v>138.18181818181819</v>
+      </c>
+    </row>
+    <row r="232" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A232">
         <v>231</v>
       </c>
@@ -10879,8 +12918,12 @@
       <c r="I232">
         <v>2008</v>
       </c>
-    </row>
-    <row r="233" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J232">
+        <f>((Table1[[#This Row],[bill_length_mm]]-$L$2)/($L$4))*200</f>
+        <v>95.27272727272728</v>
+      </c>
+    </row>
+    <row r="233" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A233">
         <v>232</v>
       </c>
@@ -10908,8 +12951,12 @@
       <c r="I233">
         <v>2008</v>
       </c>
-    </row>
-    <row r="234" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J233">
+        <f>((Table1[[#This Row],[bill_length_mm]]-$L$2)/($L$4))*200</f>
+        <v>95.27272727272728</v>
+      </c>
+    </row>
+    <row r="234" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A234">
         <v>233</v>
       </c>
@@ -10937,8 +12984,12 @@
       <c r="I234">
         <v>2009</v>
       </c>
-    </row>
-    <row r="235" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J234">
+        <f>((Table1[[#This Row],[bill_length_mm]]-$L$2)/($L$4))*200</f>
+        <v>123.63636363636363</v>
+      </c>
+    </row>
+    <row r="235" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A235">
         <v>234</v>
       </c>
@@ -10966,8 +13017,12 @@
       <c r="I235">
         <v>2009</v>
       </c>
-    </row>
-    <row r="236" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J235">
+        <f>((Table1[[#This Row],[bill_length_mm]]-$L$2)/($L$4))*200</f>
+        <v>148.36363636363637</v>
+      </c>
+    </row>
+    <row r="236" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A236">
         <v>235</v>
       </c>
@@ -10995,8 +13050,12 @@
       <c r="I236">
         <v>2009</v>
       </c>
-    </row>
-    <row r="237" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J236">
+        <f>((Table1[[#This Row],[bill_length_mm]]-$L$2)/($L$4))*200</f>
+        <v>111.27272727272725</v>
+      </c>
+    </row>
+    <row r="237" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A237">
         <v>236</v>
       </c>
@@ -11024,8 +13083,12 @@
       <c r="I237">
         <v>2009</v>
       </c>
-    </row>
-    <row r="238" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J237">
+        <f>((Table1[[#This Row],[bill_length_mm]]-$L$2)/($L$4))*200</f>
+        <v>130.18181818181819</v>
+      </c>
+    </row>
+    <row r="238" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A238">
         <v>237</v>
       </c>
@@ -11053,8 +13116,12 @@
       <c r="I238">
         <v>2009</v>
       </c>
-    </row>
-    <row r="239" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J238">
+        <f>((Table1[[#This Row],[bill_length_mm]]-$L$2)/($L$4))*200</f>
+        <v>93.090909090909065</v>
+      </c>
+    </row>
+    <row r="239" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A239">
         <v>238</v>
       </c>
@@ -11082,8 +13149,12 @@
       <c r="I239">
         <v>2009</v>
       </c>
-    </row>
-    <row r="240" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J239">
+        <f>((Table1[[#This Row],[bill_length_mm]]-$L$2)/($L$4))*200</f>
+        <v>135.99999999999997</v>
+      </c>
+    </row>
+    <row r="240" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A240">
         <v>239</v>
       </c>
@@ -11111,8 +13182,12 @@
       <c r="I240">
         <v>2009</v>
       </c>
-    </row>
-    <row r="241" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J240">
+        <f>((Table1[[#This Row],[bill_length_mm]]-$L$2)/($L$4))*200</f>
+        <v>82.181818181818159</v>
+      </c>
+    </row>
+    <row r="241" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A241">
         <v>240</v>
       </c>
@@ -11140,8 +13215,12 @@
       <c r="I241">
         <v>2009</v>
       </c>
-    </row>
-    <row r="242" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J241">
+        <f>((Table1[[#This Row],[bill_length_mm]]-$L$2)/($L$4))*200</f>
+        <v>139.6363636363636</v>
+      </c>
+    </row>
+    <row r="242" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A242">
         <v>241</v>
       </c>
@@ -11169,8 +13248,12 @@
       <c r="I242">
         <v>2009</v>
       </c>
-    </row>
-    <row r="243" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J242">
+        <f>((Table1[[#This Row],[bill_length_mm]]-$L$2)/($L$4))*200</f>
+        <v>111.99999999999999</v>
+      </c>
+    </row>
+    <row r="243" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A243">
         <v>242</v>
       </c>
@@ -11198,8 +13281,12 @@
       <c r="I243">
         <v>2009</v>
       </c>
-    </row>
-    <row r="244" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J243">
+        <f>((Table1[[#This Row],[bill_length_mm]]-$L$2)/($L$4))*200</f>
+        <v>145.45454545454547</v>
+      </c>
+    </row>
+    <row r="244" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A244">
         <v>243</v>
       </c>
@@ -11227,8 +13314,12 @@
       <c r="I244">
         <v>2009</v>
       </c>
-    </row>
-    <row r="245" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J244">
+        <f>((Table1[[#This Row],[bill_length_mm]]-$L$2)/($L$4))*200</f>
+        <v>111.99999999999999</v>
+      </c>
+    </row>
+    <row r="245" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A245">
         <v>244</v>
       </c>
@@ -11256,8 +13347,12 @@
       <c r="I245">
         <v>2009</v>
       </c>
-    </row>
-    <row r="246" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J245">
+        <f>((Table1[[#This Row],[bill_length_mm]]-$L$2)/($L$4))*200</f>
+        <v>146.18181818181819</v>
+      </c>
+    </row>
+    <row r="246" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A246">
         <v>245</v>
       </c>
@@ -11285,8 +13380,12 @@
       <c r="I246">
         <v>2009</v>
       </c>
-    </row>
-    <row r="247" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J246">
+        <f>((Table1[[#This Row],[bill_length_mm]]-$L$2)/($L$4))*200</f>
+        <v>97.454545454545453</v>
+      </c>
+    </row>
+    <row r="247" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A247">
         <v>246</v>
       </c>
@@ -11314,8 +13413,12 @@
       <c r="I247">
         <v>2009</v>
       </c>
-    </row>
-    <row r="248" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J247">
+        <f>((Table1[[#This Row],[bill_length_mm]]-$L$2)/($L$4))*200</f>
+        <v>126.54545454545453</v>
+      </c>
+    </row>
+    <row r="248" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A248">
         <v>247</v>
       </c>
@@ -11343,8 +13446,12 @@
       <c r="I248">
         <v>2009</v>
       </c>
-    </row>
-    <row r="249" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J248">
+        <f>((Table1[[#This Row],[bill_length_mm]]-$L$2)/($L$4))*200</f>
+        <v>90.181818181818173</v>
+      </c>
+    </row>
+    <row r="249" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A249">
         <v>248</v>
       </c>
@@ -11372,8 +13479,12 @@
       <c r="I249">
         <v>2009</v>
       </c>
-    </row>
-    <row r="250" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J249">
+        <f>((Table1[[#This Row],[bill_length_mm]]-$L$2)/($L$4))*200</f>
+        <v>135.99999999999997</v>
+      </c>
+    </row>
+    <row r="250" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A250">
         <v>249</v>
       </c>
@@ -11401,8 +13512,12 @@
       <c r="I250">
         <v>2009</v>
       </c>
-    </row>
-    <row r="251" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J250">
+        <f>((Table1[[#This Row],[bill_length_mm]]-$L$2)/($L$4))*200</f>
+        <v>125.81818181818181</v>
+      </c>
+    </row>
+    <row r="251" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A251">
         <v>250</v>
       </c>
@@ -11430,8 +13545,12 @@
       <c r="I251">
         <v>2009</v>
       </c>
-    </row>
-    <row r="252" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J251">
+        <f>((Table1[[#This Row],[bill_length_mm]]-$L$2)/($L$4))*200</f>
+        <v>107.63636363636363</v>
+      </c>
+    </row>
+    <row r="252" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A252">
         <v>251</v>
       </c>
@@ -11459,8 +13578,12 @@
       <c r="I252">
         <v>2009</v>
       </c>
-    </row>
-    <row r="253" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J252">
+        <f>((Table1[[#This Row],[bill_length_mm]]-$L$2)/($L$4))*200</f>
+        <v>118.54545454545453</v>
+      </c>
+    </row>
+    <row r="253" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A253">
         <v>252</v>
       </c>
@@ -11488,8 +13611,12 @@
       <c r="I253">
         <v>2009</v>
       </c>
-    </row>
-    <row r="254" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J253">
+        <f>((Table1[[#This Row],[bill_length_mm]]-$L$2)/($L$4))*200</f>
+        <v>138.18181818181819</v>
+      </c>
+    </row>
+    <row r="254" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A254">
         <v>253</v>
       </c>
@@ -11517,8 +13644,12 @@
       <c r="I254">
         <v>2009</v>
       </c>
-    </row>
-    <row r="255" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J254">
+        <f>((Table1[[#This Row],[bill_length_mm]]-$L$2)/($L$4))*200</f>
+        <v>119.27272727272727</v>
+      </c>
+    </row>
+    <row r="255" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A255">
         <v>254</v>
       </c>
@@ -11546,8 +13677,12 @@
       <c r="I255">
         <v>2009</v>
       </c>
-    </row>
-    <row r="256" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J255">
+        <f>((Table1[[#This Row],[bill_length_mm]]-$L$2)/($L$4))*200</f>
+        <v>173.09090909090907</v>
+      </c>
+    </row>
+    <row r="256" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A256">
         <v>255</v>
       </c>
@@ -11575,8 +13710,12 @@
       <c r="I256">
         <v>2009</v>
       </c>
-    </row>
-    <row r="257" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J256">
+        <f>((Table1[[#This Row],[bill_length_mm]]-$L$2)/($L$4))*200</f>
+        <v>109.81818181818184</v>
+      </c>
+    </row>
+    <row r="257" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A257">
         <v>256</v>
       </c>
@@ -11604,8 +13743,12 @@
       <c r="I257">
         <v>2009</v>
       </c>
-    </row>
-    <row r="258" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J257">
+        <f>((Table1[[#This Row],[bill_length_mm]]-$L$2)/($L$4))*200</f>
+        <v>123.63636363636363</v>
+      </c>
+    </row>
+    <row r="258" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A258">
         <v>257</v>
       </c>
@@ -11633,8 +13776,12 @@
       <c r="I258">
         <v>2009</v>
       </c>
-    </row>
-    <row r="259" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J258">
+        <f>((Table1[[#This Row],[bill_length_mm]]-$L$2)/($L$4))*200</f>
+        <v>110.54545454545452</v>
+      </c>
+    </row>
+    <row r="259" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A259">
         <v>258</v>
       </c>
@@ -11662,8 +13809,12 @@
       <c r="I259">
         <v>2009</v>
       </c>
-    </row>
-    <row r="260" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J259">
+        <f>((Table1[[#This Row],[bill_length_mm]]-$L$2)/($L$4))*200</f>
+        <v>106.90909090909089</v>
+      </c>
+    </row>
+    <row r="260" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A260">
         <v>259</v>
       </c>
@@ -11691,8 +13842,12 @@
       <c r="I260">
         <v>2009</v>
       </c>
-    </row>
-    <row r="261" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J260">
+        <f>((Table1[[#This Row],[bill_length_mm]]-$L$2)/($L$4))*200</f>
+        <v>69.818181818181827</v>
+      </c>
+    </row>
+    <row r="261" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A261">
         <v>260</v>
       </c>
@@ -11720,8 +13875,12 @@
       <c r="I261">
         <v>2009</v>
       </c>
-    </row>
-    <row r="262" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J261">
+        <f>((Table1[[#This Row],[bill_length_mm]]-$L$2)/($L$4))*200</f>
+        <v>154.90909090909088</v>
+      </c>
+    </row>
+    <row r="262" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A262">
         <v>261</v>
       </c>
@@ -11749,8 +13908,12 @@
       <c r="I262">
         <v>2009</v>
       </c>
-    </row>
-    <row r="263" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J262">
+        <f>((Table1[[#This Row],[bill_length_mm]]-$L$2)/($L$4))*200</f>
+        <v>81.454545454545425</v>
+      </c>
+    </row>
+    <row r="263" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A263">
         <v>262</v>
       </c>
@@ -11778,8 +13941,12 @@
       <c r="I263">
         <v>2009</v>
       </c>
-    </row>
-    <row r="264" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J263">
+        <f>((Table1[[#This Row],[bill_length_mm]]-$L$2)/($L$4))*200</f>
+        <v>116.36363636363636</v>
+      </c>
+    </row>
+    <row r="264" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A264">
         <v>263</v>
       </c>
@@ -11807,8 +13974,12 @@
       <c r="I264">
         <v>2009</v>
       </c>
-    </row>
-    <row r="265" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J264">
+        <f>((Table1[[#This Row],[bill_length_mm]]-$L$2)/($L$4))*200</f>
+        <v>133.81818181818181</v>
+      </c>
+    </row>
+    <row r="265" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A265">
         <v>264</v>
       </c>
@@ -11836,8 +14007,12 @@
       <c r="I265">
         <v>2009</v>
       </c>
-    </row>
-    <row r="266" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J265">
+        <f>((Table1[[#This Row],[bill_length_mm]]-$L$2)/($L$4))*200</f>
+        <v>128.72727272727269</v>
+      </c>
+    </row>
+    <row r="266" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A266">
         <v>265</v>
       </c>
@@ -11865,8 +14040,12 @@
       <c r="I266">
         <v>2009</v>
       </c>
-    </row>
-    <row r="267" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J266">
+        <f>((Table1[[#This Row],[bill_length_mm]]-$L$2)/($L$4))*200</f>
+        <v>82.909090909090892</v>
+      </c>
+    </row>
+    <row r="267" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A267">
         <v>266</v>
       </c>
@@ -11894,8 +14073,12 @@
       <c r="I267">
         <v>2009</v>
       </c>
-    </row>
-    <row r="268" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J267">
+        <f>((Table1[[#This Row],[bill_length_mm]]-$L$2)/($L$4))*200</f>
+        <v>141.09090909090909</v>
+      </c>
+    </row>
+    <row r="268" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A268">
         <v>267</v>
       </c>
@@ -11923,8 +14106,12 @@
       <c r="I268">
         <v>2009</v>
       </c>
-    </row>
-    <row r="269" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J268">
+        <f>((Table1[[#This Row],[bill_length_mm]]-$L$2)/($L$4))*200</f>
+        <v>102.54545454545456</v>
+      </c>
+    </row>
+    <row r="269" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A269">
         <v>268</v>
       </c>
@@ -11952,8 +14139,12 @@
       <c r="I269">
         <v>2009</v>
       </c>
-    </row>
-    <row r="270" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J269">
+        <f>((Table1[[#This Row],[bill_length_mm]]-$L$2)/($L$4))*200</f>
+        <v>167.27272727272725</v>
+      </c>
+    </row>
+    <row r="270" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A270">
         <v>269</v>
       </c>
@@ -11981,8 +14172,12 @@
       <c r="I270">
         <v>2009</v>
       </c>
-    </row>
-    <row r="271" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J270">
+        <f>((Table1[[#This Row],[bill_length_mm]]-$L$2)/($L$4))*200</f>
+        <v>90.181818181818173</v>
+      </c>
+    </row>
+    <row r="271" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A271">
         <v>270</v>
       </c>
@@ -12010,8 +14205,12 @@
       <c r="I271">
         <v>2009</v>
       </c>
-    </row>
-    <row r="272" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J271">
+        <f>((Table1[[#This Row],[bill_length_mm]]-$L$2)/($L$4))*200</f>
+        <v>121.45454545454541</v>
+      </c>
+    </row>
+    <row r="272" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A272">
         <v>271</v>
       </c>
@@ -12039,8 +14238,12 @@
       <c r="I272">
         <v>2009</v>
       </c>
-    </row>
-    <row r="273" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+      <c r="J272">
+        <f>((Table1[[#This Row],[bill_length_mm]]-$L$2)/($L$4))*200</f>
+        <v>109.81818181818184</v>
+      </c>
+    </row>
+    <row r="273" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A273">
         <v>272</v>
       </c>
@@ -12068,8 +14271,12 @@
       <c r="I273">
         <v>2009</v>
       </c>
-    </row>
-    <row r="274" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J273" t="e">
+        <f>((Table1[[#This Row],[bill_length_mm]]-$L$2)/($L$4))*200</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="274" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A274">
         <v>273</v>
       </c>
@@ -12097,8 +14304,12 @@
       <c r="I274">
         <v>2009</v>
       </c>
-    </row>
-    <row r="275" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J274">
+        <f>((Table1[[#This Row],[bill_length_mm]]-$L$2)/($L$4))*200</f>
+        <v>106.90909090909089</v>
+      </c>
+    </row>
+    <row r="275" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A275">
         <v>274</v>
       </c>
@@ -12126,8 +14337,12 @@
       <c r="I275">
         <v>2009</v>
       </c>
-    </row>
-    <row r="276" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J275">
+        <f>((Table1[[#This Row],[bill_length_mm]]-$L$2)/($L$4))*200</f>
+        <v>133.09090909090907</v>
+      </c>
+    </row>
+    <row r="276" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A276">
         <v>275</v>
       </c>
@@ -12155,8 +14370,12 @@
       <c r="I276">
         <v>2009</v>
       </c>
-    </row>
-    <row r="277" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J276">
+        <f>((Table1[[#This Row],[bill_length_mm]]-$L$2)/($L$4))*200</f>
+        <v>95.27272727272728</v>
+      </c>
+    </row>
+    <row r="277" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A277">
         <v>276</v>
       </c>
@@ -12184,8 +14403,12 @@
       <c r="I277">
         <v>2009</v>
       </c>
-    </row>
-    <row r="278" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J277">
+        <f>((Table1[[#This Row],[bill_length_mm]]-$L$2)/($L$4))*200</f>
+        <v>129.45454545454544</v>
+      </c>
+    </row>
+    <row r="278" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A278">
         <v>277</v>
       </c>
@@ -12213,8 +14436,12 @@
       <c r="I278">
         <v>2007</v>
       </c>
-    </row>
-    <row r="279" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J278">
+        <f>((Table1[[#This Row],[bill_length_mm]]-$L$2)/($L$4))*200</f>
+        <v>104.72727272727272</v>
+      </c>
+    </row>
+    <row r="279" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A279">
         <v>278</v>
       </c>
@@ -12242,8 +14469,12 @@
       <c r="I279">
         <v>2007</v>
       </c>
-    </row>
-    <row r="280" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J279">
+        <f>((Table1[[#This Row],[bill_length_mm]]-$L$2)/($L$4))*200</f>
+        <v>130.18181818181819</v>
+      </c>
+    </row>
+    <row r="280" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A280">
         <v>279</v>
       </c>
@@ -12271,8 +14502,12 @@
       <c r="I280">
         <v>2007</v>
       </c>
-    </row>
-    <row r="281" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J280">
+        <f>((Table1[[#This Row],[bill_length_mm]]-$L$2)/($L$4))*200</f>
+        <v>139.6363636363636</v>
+      </c>
+    </row>
+    <row r="281" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A281">
         <v>280</v>
       </c>
@@ -12300,8 +14535,12 @@
       <c r="I281">
         <v>2007</v>
       </c>
-    </row>
-    <row r="282" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J281">
+        <f>((Table1[[#This Row],[bill_length_mm]]-$L$2)/($L$4))*200</f>
+        <v>96.727272727272705</v>
+      </c>
+    </row>
+    <row r="282" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A282">
         <v>281</v>
       </c>
@@ -12329,8 +14568,12 @@
       <c r="I282">
         <v>2007</v>
       </c>
-    </row>
-    <row r="283" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J282">
+        <f>((Table1[[#This Row],[bill_length_mm]]-$L$2)/($L$4))*200</f>
+        <v>149.81818181818184</v>
+      </c>
+    </row>
+    <row r="283" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A283">
         <v>282</v>
       </c>
@@ -12358,8 +14601,12 @@
       <c r="I283">
         <v>2007</v>
       </c>
-    </row>
-    <row r="284" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J283">
+        <f>((Table1[[#This Row],[bill_length_mm]]-$L$2)/($L$4))*200</f>
+        <v>95.27272727272728</v>
+      </c>
+    </row>
+    <row r="284" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A284">
         <v>283</v>
       </c>
@@ -12387,8 +14634,12 @@
       <c r="I284">
         <v>2007</v>
       </c>
-    </row>
-    <row r="285" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J284">
+        <f>((Table1[[#This Row],[bill_length_mm]]-$L$2)/($L$4))*200</f>
+        <v>101.81818181818181</v>
+      </c>
+    </row>
+    <row r="285" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A285">
         <v>284</v>
       </c>
@@ -12416,8 +14667,12 @@
       <c r="I285">
         <v>2007</v>
       </c>
-    </row>
-    <row r="286" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J285">
+        <f>((Table1[[#This Row],[bill_length_mm]]-$L$2)/($L$4))*200</f>
+        <v>139.6363636363636</v>
+      </c>
+    </row>
+    <row r="286" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A286">
         <v>285</v>
       </c>
@@ -12445,8 +14700,12 @@
       <c r="I286">
         <v>2007</v>
       </c>
-    </row>
-    <row r="287" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J286">
+        <f>((Table1[[#This Row],[bill_length_mm]]-$L$2)/($L$4))*200</f>
+        <v>101.09090909090908</v>
+      </c>
+    </row>
+    <row r="287" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A287">
         <v>286</v>
       </c>
@@ -12474,8 +14733,12 @@
       <c r="I287">
         <v>2007</v>
       </c>
-    </row>
-    <row r="288" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J287">
+        <f>((Table1[[#This Row],[bill_length_mm]]-$L$2)/($L$4))*200</f>
+        <v>139.6363636363636</v>
+      </c>
+    </row>
+    <row r="288" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A288">
         <v>287</v>
       </c>
@@ -12503,8 +14766,12 @@
       <c r="I288">
         <v>2007</v>
       </c>
-    </row>
-    <row r="289" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J288">
+        <f>((Table1[[#This Row],[bill_length_mm]]-$L$2)/($L$4))*200</f>
+        <v>105.45454545454544</v>
+      </c>
+    </row>
+    <row r="289" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A289">
         <v>288</v>
       </c>
@@ -12532,8 +14799,12 @@
       <c r="I289">
         <v>2007</v>
       </c>
-    </row>
-    <row r="290" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J289">
+        <f>((Table1[[#This Row],[bill_length_mm]]-$L$2)/($L$4))*200</f>
+        <v>142.54545454545456</v>
+      </c>
+    </row>
+    <row r="290" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A290">
         <v>289</v>
       </c>
@@ -12561,8 +14832,12 @@
       <c r="I290">
         <v>2007</v>
       </c>
-    </row>
-    <row r="291" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J290">
+        <f>((Table1[[#This Row],[bill_length_mm]]-$L$2)/($L$4))*200</f>
+        <v>108.36363636363635</v>
+      </c>
+    </row>
+    <row r="291" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A291">
         <v>290</v>
       </c>
@@ -12590,8 +14865,12 @@
       <c r="I291">
         <v>2007</v>
       </c>
-    </row>
-    <row r="292" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J291">
+        <f>((Table1[[#This Row],[bill_length_mm]]-$L$2)/($L$4))*200</f>
+        <v>144.72727272727272</v>
+      </c>
+    </row>
+    <row r="292" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A292">
         <v>291</v>
       </c>
@@ -12619,8 +14898,12 @@
       <c r="I292">
         <v>2007</v>
       </c>
-    </row>
-    <row r="293" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J292">
+        <f>((Table1[[#This Row],[bill_length_mm]]-$L$2)/($L$4))*200</f>
+        <v>100.36363636363635</v>
+      </c>
+    </row>
+    <row r="293" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A293">
         <v>292</v>
       </c>
@@ -12648,8 +14931,12 @@
       <c r="I293">
         <v>2007</v>
       </c>
-    </row>
-    <row r="294" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J293">
+        <f>((Table1[[#This Row],[bill_length_mm]]-$L$2)/($L$4))*200</f>
+        <v>133.81818181818181</v>
+      </c>
+    </row>
+    <row r="294" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A294">
         <v>293</v>
       </c>
@@ -12677,8 +14964,12 @@
       <c r="I294">
         <v>2007</v>
       </c>
-    </row>
-    <row r="295" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J294">
+        <f>((Table1[[#This Row],[bill_length_mm]]-$L$2)/($L$4))*200</f>
+        <v>132.36363636363632</v>
+      </c>
+    </row>
+    <row r="295" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A295">
         <v>294</v>
       </c>
@@ -12706,8 +14997,12 @@
       <c r="I295">
         <v>2007</v>
       </c>
-    </row>
-    <row r="296" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J295">
+        <f>((Table1[[#This Row],[bill_length_mm]]-$L$2)/($L$4))*200</f>
+        <v>188.36363636363635</v>
+      </c>
+    </row>
+    <row r="296" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A296">
         <v>295</v>
       </c>
@@ -12735,8 +15030,12 @@
       <c r="I296">
         <v>2007</v>
       </c>
-    </row>
-    <row r="297" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J296">
+        <f>((Table1[[#This Row],[bill_length_mm]]-$L$2)/($L$4))*200</f>
+        <v>103.99999999999999</v>
+      </c>
+    </row>
+    <row r="297" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A297">
         <v>296</v>
       </c>
@@ -12764,8 +15063,12 @@
       <c r="I297">
         <v>2007</v>
       </c>
-    </row>
-    <row r="298" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J297">
+        <f>((Table1[[#This Row],[bill_length_mm]]-$L$2)/($L$4))*200</f>
+        <v>124.36363636363636</v>
+      </c>
+    </row>
+    <row r="298" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A298">
         <v>297</v>
       </c>
@@ -12793,8 +15096,12 @@
       <c r="I298">
         <v>2007</v>
       </c>
-    </row>
-    <row r="299" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J298">
+        <f>((Table1[[#This Row],[bill_length_mm]]-$L$2)/($L$4))*200</f>
+        <v>74.909090909090892</v>
+      </c>
+    </row>
+    <row r="299" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A299">
         <v>298</v>
       </c>
@@ -12822,8 +15129,12 @@
       <c r="I299">
         <v>2007</v>
       </c>
-    </row>
-    <row r="300" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J299">
+        <f>((Table1[[#This Row],[bill_length_mm]]-$L$2)/($L$4))*200</f>
+        <v>119.27272727272727</v>
+      </c>
+    </row>
+    <row r="300" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A300">
         <v>299</v>
       </c>
@@ -12851,8 +15162,12 @@
       <c r="I300">
         <v>2007</v>
       </c>
-    </row>
-    <row r="301" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J300">
+        <f>((Table1[[#This Row],[bill_length_mm]]-$L$2)/($L$4))*200</f>
+        <v>80.727272727272734</v>
+      </c>
+    </row>
+    <row r="301" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A301">
         <v>300</v>
       </c>
@@ -12880,8 +15195,12 @@
       <c r="I301">
         <v>2007</v>
       </c>
-    </row>
-    <row r="302" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J301">
+        <f>((Table1[[#This Row],[bill_length_mm]]-$L$2)/($L$4))*200</f>
+        <v>134.54545454545453</v>
+      </c>
+    </row>
+    <row r="302" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A302">
         <v>301</v>
       </c>
@@ -12909,8 +15228,12 @@
       <c r="I302">
         <v>2007</v>
       </c>
-    </row>
-    <row r="303" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J302">
+        <f>((Table1[[#This Row],[bill_length_mm]]-$L$2)/($L$4))*200</f>
+        <v>106.1818181818182</v>
+      </c>
+    </row>
+    <row r="303" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A303">
         <v>302</v>
       </c>
@@ -12938,8 +15261,12 @@
       <c r="I303">
         <v>2007</v>
       </c>
-    </row>
-    <row r="304" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J303">
+        <f>((Table1[[#This Row],[bill_length_mm]]-$L$2)/($L$4))*200</f>
+        <v>144.72727272727272</v>
+      </c>
+    </row>
+    <row r="304" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A304">
         <v>303</v>
       </c>
@@ -12967,8 +15294,12 @@
       <c r="I304">
         <v>2008</v>
       </c>
-    </row>
-    <row r="305" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J304">
+        <f>((Table1[[#This Row],[bill_length_mm]]-$L$2)/($L$4))*200</f>
+        <v>133.81818181818181</v>
+      </c>
+    </row>
+    <row r="305" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A305">
         <v>304</v>
       </c>
@@ -12996,8 +15327,12 @@
       <c r="I305">
         <v>2008</v>
       </c>
-    </row>
-    <row r="306" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J305">
+        <f>((Table1[[#This Row],[bill_length_mm]]-$L$2)/($L$4))*200</f>
+        <v>126.54545454545453</v>
+      </c>
+    </row>
+    <row r="306" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A306">
         <v>305</v>
       </c>
@@ -13025,8 +15360,12 @@
       <c r="I306">
         <v>2008</v>
       </c>
-    </row>
-    <row r="307" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J306">
+        <f>((Table1[[#This Row],[bill_length_mm]]-$L$2)/($L$4))*200</f>
+        <v>103.99999999999999</v>
+      </c>
+    </row>
+    <row r="307" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A307">
         <v>306</v>
       </c>
@@ -13054,8 +15393,12 @@
       <c r="I307">
         <v>2008</v>
       </c>
-    </row>
-    <row r="308" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J307">
+        <f>((Table1[[#This Row],[bill_length_mm]]-$L$2)/($L$4))*200</f>
+        <v>150.5454545454545</v>
+      </c>
+    </row>
+    <row r="308" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A308">
         <v>307</v>
       </c>
@@ -13083,8 +15426,12 @@
       <c r="I308">
         <v>2008</v>
       </c>
-    </row>
-    <row r="309" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J308">
+        <f>((Table1[[#This Row],[bill_length_mm]]-$L$2)/($L$4))*200</f>
+        <v>63.999999999999979</v>
+      </c>
+    </row>
+    <row r="309" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A309">
         <v>308</v>
       </c>
@@ -13112,8 +15459,12 @@
       <c r="I309">
         <v>2008</v>
       </c>
-    </row>
-    <row r="310" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J309">
+        <f>((Table1[[#This Row],[bill_length_mm]]-$L$2)/($L$4))*200</f>
+        <v>160.72727272727275</v>
+      </c>
+    </row>
+    <row r="310" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A310">
         <v>309</v>
       </c>
@@ -13141,8 +15492,12 @@
       <c r="I310">
         <v>2008</v>
       </c>
-    </row>
-    <row r="311" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J310">
+        <f>((Table1[[#This Row],[bill_length_mm]]-$L$2)/($L$4))*200</f>
+        <v>75.636363636363626</v>
+      </c>
+    </row>
+    <row r="311" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A311">
         <v>310</v>
       </c>
@@ -13170,8 +15525,12 @@
       <c r="I311">
         <v>2008</v>
       </c>
-    </row>
-    <row r="312" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J311">
+        <f>((Table1[[#This Row],[bill_length_mm]]-$L$2)/($L$4))*200</f>
+        <v>137.45454545454544</v>
+      </c>
+    </row>
+    <row r="312" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A312">
         <v>311</v>
       </c>
@@ -13199,8 +15558,12 @@
       <c r="I312">
         <v>2008</v>
       </c>
-    </row>
-    <row r="313" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J312">
+        <f>((Table1[[#This Row],[bill_length_mm]]-$L$2)/($L$4))*200</f>
+        <v>128</v>
+      </c>
+    </row>
+    <row r="313" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A313">
         <v>312</v>
       </c>
@@ -13228,8 +15591,12 @@
       <c r="I313">
         <v>2008</v>
       </c>
-    </row>
-    <row r="314" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J313">
+        <f>((Table1[[#This Row],[bill_length_mm]]-$L$2)/($L$4))*200</f>
+        <v>111.99999999999999</v>
+      </c>
+    </row>
+    <row r="314" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A314">
         <v>313</v>
       </c>
@@ -13257,8 +15624,12 @@
       <c r="I314">
         <v>2008</v>
       </c>
-    </row>
-    <row r="315" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J314">
+        <f>((Table1[[#This Row],[bill_length_mm]]-$L$2)/($L$4))*200</f>
+        <v>112.72727272727272</v>
+      </c>
+    </row>
+    <row r="315" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A315">
         <v>314</v>
       </c>
@@ -13286,8 +15657,12 @@
       <c r="I315">
         <v>2008</v>
       </c>
-    </row>
-    <row r="316" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J315">
+        <f>((Table1[[#This Row],[bill_length_mm]]-$L$2)/($L$4))*200</f>
+        <v>144.72727272727272</v>
+      </c>
+    </row>
+    <row r="316" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A316">
         <v>315</v>
       </c>
@@ -13315,8 +15690,12 @@
       <c r="I316">
         <v>2008</v>
       </c>
-    </row>
-    <row r="317" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J316">
+        <f>((Table1[[#This Row],[bill_length_mm]]-$L$2)/($L$4))*200</f>
+        <v>107.63636363636363</v>
+      </c>
+    </row>
+    <row r="317" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A317">
         <v>316</v>
       </c>
@@ -13344,8 +15723,12 @@
       <c r="I317">
         <v>2008</v>
       </c>
-    </row>
-    <row r="318" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J317">
+        <f>((Table1[[#This Row],[bill_length_mm]]-$L$2)/($L$4))*200</f>
+        <v>155.63636363636363</v>
+      </c>
+    </row>
+    <row r="318" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A318">
         <v>317</v>
       </c>
@@ -13373,8 +15756,12 @@
       <c r="I318">
         <v>2008</v>
       </c>
-    </row>
-    <row r="319" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J318">
+        <f>((Table1[[#This Row],[bill_length_mm]]-$L$2)/($L$4))*200</f>
+        <v>122.90909090909091</v>
+      </c>
+    </row>
+    <row r="319" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A319">
         <v>318</v>
       </c>
@@ -13402,8 +15789,12 @@
       <c r="I319">
         <v>2008</v>
       </c>
-    </row>
-    <row r="320" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J319">
+        <f>((Table1[[#This Row],[bill_length_mm]]-$L$2)/($L$4))*200</f>
+        <v>102.54545454545456</v>
+      </c>
+    </row>
+    <row r="320" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A320">
         <v>319</v>
       </c>
@@ -13431,8 +15822,12 @@
       <c r="I320">
         <v>2008</v>
       </c>
-    </row>
-    <row r="321" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J320">
+        <f>((Table1[[#This Row],[bill_length_mm]]-$L$2)/($L$4))*200</f>
+        <v>136.72727272727269</v>
+      </c>
+    </row>
+    <row r="321" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A321">
         <v>320</v>
       </c>
@@ -13460,8 +15855,12 @@
       <c r="I321">
         <v>2008</v>
       </c>
-    </row>
-    <row r="322" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J321">
+        <f>((Table1[[#This Row],[bill_length_mm]]-$L$2)/($L$4))*200</f>
+        <v>97.454545454545453</v>
+      </c>
+    </row>
+    <row r="322" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A322">
         <v>321</v>
       </c>
@@ -13489,8 +15888,12 @@
       <c r="I322">
         <v>2009</v>
       </c>
-    </row>
-    <row r="323" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J322">
+        <f>((Table1[[#This Row],[bill_length_mm]]-$L$2)/($L$4))*200</f>
+        <v>136.72727272727269</v>
+      </c>
+    </row>
+    <row r="323" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A323">
         <v>322</v>
       </c>
@@ -13518,8 +15921,12 @@
       <c r="I323">
         <v>2009</v>
       </c>
-    </row>
-    <row r="324" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J323">
+        <f>((Table1[[#This Row],[bill_length_mm]]-$L$2)/($L$4))*200</f>
+        <v>135.99999999999997</v>
+      </c>
+    </row>
+    <row r="324" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A324">
         <v>323</v>
       </c>
@@ -13547,8 +15954,12 @@
       <c r="I324">
         <v>2009</v>
       </c>
-    </row>
-    <row r="325" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J324">
+        <f>((Table1[[#This Row],[bill_length_mm]]-$L$2)/($L$4))*200</f>
+        <v>130.90909090909091</v>
+      </c>
+    </row>
+    <row r="325" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A325">
         <v>324</v>
       </c>
@@ -13576,8 +15987,12 @@
       <c r="I325">
         <v>2009</v>
       </c>
-    </row>
-    <row r="326" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J325">
+        <f>((Table1[[#This Row],[bill_length_mm]]-$L$2)/($L$4))*200</f>
+        <v>122.90909090909091</v>
+      </c>
+    </row>
+    <row r="326" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A326">
         <v>325</v>
       </c>
@@ -13605,8 +16020,12 @@
       <c r="I326">
         <v>2009</v>
       </c>
-    </row>
-    <row r="327" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J326">
+        <f>((Table1[[#This Row],[bill_length_mm]]-$L$2)/($L$4))*200</f>
+        <v>141.09090909090909</v>
+      </c>
+    </row>
+    <row r="327" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A327">
         <v>326</v>
       </c>
@@ -13634,8 +16053,12 @@
       <c r="I327">
         <v>2009</v>
       </c>
-    </row>
-    <row r="328" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J327">
+        <f>((Table1[[#This Row],[bill_length_mm]]-$L$2)/($L$4))*200</f>
+        <v>128.72727272727269</v>
+      </c>
+    </row>
+    <row r="328" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A328">
         <v>327</v>
       </c>
@@ -13663,8 +16086,12 @@
       <c r="I328">
         <v>2009</v>
       </c>
-    </row>
-    <row r="329" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J328">
+        <f>((Table1[[#This Row],[bill_length_mm]]-$L$2)/($L$4))*200</f>
+        <v>116.36363636363636</v>
+      </c>
+    </row>
+    <row r="329" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A329">
         <v>328</v>
       </c>
@@ -13692,8 +16119,12 @@
       <c r="I329">
         <v>2009</v>
       </c>
-    </row>
-    <row r="330" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J329">
+        <f>((Table1[[#This Row],[bill_length_mm]]-$L$2)/($L$4))*200</f>
+        <v>140.36363636363635</v>
+      </c>
+    </row>
+    <row r="330" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A330">
         <v>329</v>
       </c>
@@ -13721,8 +16152,12 @@
       <c r="I330">
         <v>2009</v>
       </c>
-    </row>
-    <row r="331" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J330">
+        <f>((Table1[[#This Row],[bill_length_mm]]-$L$2)/($L$4))*200</f>
+        <v>98.909090909090921</v>
+      </c>
+    </row>
+    <row r="331" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A331">
         <v>330</v>
       </c>
@@ -13750,8 +16185,12 @@
       <c r="I331">
         <v>2009</v>
       </c>
-    </row>
-    <row r="332" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J331">
+        <f>((Table1[[#This Row],[bill_length_mm]]-$L$2)/($L$4))*200</f>
+        <v>135.27272727272728</v>
+      </c>
+    </row>
+    <row r="332" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A332">
         <v>331</v>
       </c>
@@ -13779,8 +16218,12 @@
       <c r="I332">
         <v>2009</v>
       </c>
-    </row>
-    <row r="333" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J332">
+        <f>((Table1[[#This Row],[bill_length_mm]]-$L$2)/($L$4))*200</f>
+        <v>75.636363636363626</v>
+      </c>
+    </row>
+    <row r="333" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A333">
         <v>332</v>
       </c>
@@ -13808,8 +16251,12 @@
       <c r="I333">
         <v>2009</v>
       </c>
-    </row>
-    <row r="334" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J333">
+        <f>((Table1[[#This Row],[bill_length_mm]]-$L$2)/($L$4))*200</f>
+        <v>146.18181818181819</v>
+      </c>
+    </row>
+    <row r="334" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A334">
         <v>333</v>
       </c>
@@ -13837,8 +16284,12 @@
       <c r="I334">
         <v>2009</v>
       </c>
-    </row>
-    <row r="335" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J334">
+        <f>((Table1[[#This Row],[bill_length_mm]]-$L$2)/($L$4))*200</f>
+        <v>95.27272727272728</v>
+      </c>
+    </row>
+    <row r="335" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A335">
         <v>334</v>
       </c>
@@ -13866,8 +16317,12 @@
       <c r="I335">
         <v>2009</v>
       </c>
-    </row>
-    <row r="336" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J335">
+        <f>((Table1[[#This Row],[bill_length_mm]]-$L$2)/($L$4))*200</f>
+        <v>125.09090909090905</v>
+      </c>
+    </row>
+    <row r="336" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A336">
         <v>335</v>
       </c>
@@ -13895,8 +16350,12 @@
       <c r="I336">
         <v>2009</v>
       </c>
-    </row>
-    <row r="337" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J336">
+        <f>((Table1[[#This Row],[bill_length_mm]]-$L$2)/($L$4))*200</f>
+        <v>131.63636363636363</v>
+      </c>
+    </row>
+    <row r="337" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A337">
         <v>336</v>
       </c>
@@ -13924,8 +16383,12 @@
       <c r="I337">
         <v>2009</v>
       </c>
-    </row>
-    <row r="338" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J337">
+        <f>((Table1[[#This Row],[bill_length_mm]]-$L$2)/($L$4))*200</f>
+        <v>98.181818181818187</v>
+      </c>
+    </row>
+    <row r="338" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A338">
         <v>337</v>
       </c>
@@ -13953,8 +16416,12 @@
       <c r="I338">
         <v>2009</v>
       </c>
-    </row>
-    <row r="339" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J338">
+        <f>((Table1[[#This Row],[bill_length_mm]]-$L$2)/($L$4))*200</f>
+        <v>143.99999999999997</v>
+      </c>
+    </row>
+    <row r="339" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A339">
         <v>338</v>
       </c>
@@ -13982,8 +16449,12 @@
       <c r="I339">
         <v>2009</v>
       </c>
-    </row>
-    <row r="340" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J339">
+        <f>((Table1[[#This Row],[bill_length_mm]]-$L$2)/($L$4))*200</f>
+        <v>106.90909090909089</v>
+      </c>
+    </row>
+    <row r="340" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A340">
         <v>339</v>
       </c>
@@ -14011,8 +16482,12 @@
       <c r="I340">
         <v>2009</v>
       </c>
-    </row>
-    <row r="341" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J340">
+        <f>((Table1[[#This Row],[bill_length_mm]]-$L$2)/($L$4))*200</f>
+        <v>98.909090909090921</v>
+      </c>
+    </row>
+    <row r="341" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A341">
         <v>340</v>
       </c>
@@ -14040,8 +16515,12 @@
       <c r="I341">
         <v>2009</v>
       </c>
-    </row>
-    <row r="342" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J341">
+        <f>((Table1[[#This Row],[bill_length_mm]]-$L$2)/($L$4))*200</f>
+        <v>172.36363636363635</v>
+      </c>
+    </row>
+    <row r="342" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A342">
         <v>341</v>
       </c>
@@ -14069,8 +16548,12 @@
       <c r="I342">
         <v>2009</v>
       </c>
-    </row>
-    <row r="343" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J342">
+        <f>((Table1[[#This Row],[bill_length_mm]]-$L$2)/($L$4))*200</f>
+        <v>82.909090909090892</v>
+      </c>
+    </row>
+    <row r="343" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A343">
         <v>342</v>
       </c>
@@ -14098,8 +16581,12 @@
       <c r="I343">
         <v>2009</v>
       </c>
-    </row>
-    <row r="344" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J343">
+        <f>((Table1[[#This Row],[bill_length_mm]]-$L$2)/($L$4))*200</f>
+        <v>127.27272727272727</v>
+      </c>
+    </row>
+    <row r="344" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A344">
         <v>343</v>
       </c>
@@ -14127,8 +16614,12 @@
       <c r="I344">
         <v>2009</v>
       </c>
-    </row>
-    <row r="345" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J344">
+        <f>((Table1[[#This Row],[bill_length_mm]]-$L$2)/($L$4))*200</f>
+        <v>135.99999999999997</v>
+      </c>
+    </row>
+    <row r="345" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A345">
         <v>344</v>
       </c>
@@ -14155,6 +16646,10 @@
       </c>
       <c r="I345">
         <v>2009</v>
+      </c>
+      <c r="J345">
+        <f>((Table1[[#This Row],[bill_length_mm]]-$L$2)/($L$4))*200</f>
+        <v>131.63636363636363</v>
       </c>
     </row>
   </sheetData>

--- a/all_visualizations/kf_excel_penglings.csv.xlsx
+++ b/all_visualizations/kf_excel_penglings.csv.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\klaud\WebstormProjects\klaudio-fusha-a2-datavis-5ways\a2-DataVis-5ways\all_visualizations\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4009C333-5ECC-43EB-931B-82C8FF0B3C02}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{032DEE74-C74D-402B-A587-6C141488F088}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{298BFD60-299E-47A5-8AF2-E192D2EEC218}"/>
   </bookViews>
@@ -4172,6 +4172,37 @@
         <a:effectLst/>
       </c:spPr>
     </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
     <c:showDLblsOverMax val="0"/>
